--- a/Updates/Input data/Bookings With Publisher Promo (10).xlsx
+++ b/Updates/Input data/Bookings With Publisher Promo (10).xlsx
@@ -631,7 +631,7 @@
         <v>468646</v>
       </c>
       <c r="B8" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C8" s="1">
         <v>45933.12550925926</v>

--- a/Updates/Input data/Bookings With Publisher Promo (10).xlsx
+++ b/Updates/Input data/Bookings With Publisher Promo (10).xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +421,7 @@
         <v>467626</v>
       </c>
       <c r="B2" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C2" s="1">
         <v>45931.12550925926</v>
@@ -696,10 +696,185 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="10"/>
+    <row r="10">
+      <c r="A10">
+        <v>469736</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45936.12550925926</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E10" t="str">
+        <v>New</v>
+      </c>
+      <c r="F10">
+        <v>2490.87</v>
+      </c>
+      <c r="G10">
+        <v>0.05</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10" t="str">
+        <v>D20</v>
+      </c>
+      <c r="J10">
+        <v>0.0002</v>
+      </c>
+      <c r="K10">
+        <v>49.82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>470018</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45936.12550925926</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F11">
+        <v>1717.58</v>
+      </c>
+      <c r="G11">
+        <v>0.05</v>
+      </c>
+      <c r="H11">
+        <v>90.399</v>
+      </c>
+      <c r="I11" t="str">
+        <v>D20</v>
+      </c>
+      <c r="J11">
+        <v>0.0002</v>
+      </c>
+      <c r="K11">
+        <v>34.35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>470058</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45936.12550925926</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F12">
+        <v>89.98</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>9.998</v>
+      </c>
+      <c r="I12" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J12">
+        <v>0.0003</v>
+      </c>
+      <c r="K12">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>470071</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Car Assigned</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45937.12550925926</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F13">
+        <v>2238.83</v>
+      </c>
+      <c r="G13">
+        <v>0.05</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J13">
+        <v>0.0002</v>
+      </c>
+      <c r="K13">
+        <v>44.78</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>470188</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Car Assigned</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45937.12550925926</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E14" t="str">
+        <v>New</v>
+      </c>
+      <c r="F14">
+        <v>1419.21</v>
+      </c>
+      <c r="G14">
+        <v>0.05</v>
+      </c>
+      <c r="H14">
+        <v>74.6945</v>
+      </c>
+      <c r="I14" t="str">
+        <v>D99</v>
+      </c>
+      <c r="J14">
+        <v>0.0002</v>
+      </c>
+      <c r="K14">
+        <v>28.38</v>
+      </c>
+    </row>
+    <row r="15"/>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Updates/Input data/Bookings With Publisher Promo (10).xlsx
+++ b/Updates/Input data/Bookings With Publisher Promo (10).xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -561,7 +561,7 @@
         <v>468412</v>
       </c>
       <c r="B6" t="str">
-        <v>Rental Started</v>
+        <v>Collect</v>
       </c>
       <c r="C6" s="1">
         <v>45932.12550925926</v>
@@ -771,7 +771,7 @@
         <v>470058</v>
       </c>
       <c r="B12" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C12" s="1">
         <v>45936.12550925926</v>
@@ -841,7 +841,7 @@
         <v>470188</v>
       </c>
       <c r="B14" t="str">
-        <v>Car Assigned</v>
+        <v>Rental Started</v>
       </c>
       <c r="C14" s="1">
         <v>45937.12550925926</v>
@@ -871,10 +871,220 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="15"/>
+    <row r="15">
+      <c r="A15">
+        <v>470286</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45937.12550925926</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F15">
+        <v>89.98</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>9.998</v>
+      </c>
+      <c r="I15" t="str">
+        <v>D20</v>
+      </c>
+      <c r="J15">
+        <v>0.0003</v>
+      </c>
+      <c r="K15">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>470499</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45938.12550925926</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F16">
+        <v>85.48</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>9.498</v>
+      </c>
+      <c r="I16" t="str">
+        <v>D49</v>
+      </c>
+      <c r="J16">
+        <v>0.0003</v>
+      </c>
+      <c r="K16">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>470583</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45938.12550925926</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F17">
+        <v>1901.9</v>
+      </c>
+      <c r="G17">
+        <v>0.05</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17" t="str">
+        <v>D12</v>
+      </c>
+      <c r="J17">
+        <v>0.0002</v>
+      </c>
+      <c r="K17">
+        <v>38.04</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>470611</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45938.12550925926</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Weekly</v>
+      </c>
+      <c r="E18" t="str">
+        <v>New</v>
+      </c>
+      <c r="F18">
+        <v>554.59</v>
+      </c>
+      <c r="G18">
+        <v>0.08</v>
+      </c>
+      <c r="H18">
+        <v>46.59439999999999</v>
+      </c>
+      <c r="I18" t="str">
+        <v>D33</v>
+      </c>
+      <c r="J18">
+        <v>0.000325</v>
+      </c>
+      <c r="K18">
+        <v>18.02</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>470671</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Car Assigned</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45938.12550925926</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E19" t="str">
+        <v>New</v>
+      </c>
+      <c r="F19">
+        <v>1594.1</v>
+      </c>
+      <c r="G19">
+        <v>0.05</v>
+      </c>
+      <c r="H19">
+        <v>83.8995</v>
+      </c>
+      <c r="I19" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J19">
+        <v>0.0002</v>
+      </c>
+      <c r="K19">
+        <v>31.88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>470798</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Cancelled by User</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45938.12550925926</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F20">
+        <v>89.98</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>9.998</v>
+      </c>
+      <c r="I20" t="str">
+        <v>D20</v>
+      </c>
+      <c r="J20">
+        <v>0.0003</v>
+      </c>
+      <c r="K20">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="21"/>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Updates/Input data/Bookings With Publisher Promo (10).xlsx
+++ b/Updates/Input data/Bookings With Publisher Promo (10).xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,673 +418,218 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>467626</v>
+        <v>471191</v>
       </c>
       <c r="B2" t="str">
-        <v>Rental Ended</v>
+        <v>Vendor Assigned</v>
       </c>
       <c r="C2" s="1">
-        <v>45931.12550925926</v>
+        <v>45943.12550925926</v>
       </c>
       <c r="D2" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E2" t="str">
         <v>Old</v>
       </c>
       <c r="F2">
-        <v>570.5</v>
+        <v>3543.73</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <v>63.38900000000002</v>
+        <v>100</v>
       </c>
       <c r="I2" t="str">
-        <v>D99</v>
+        <v>D20</v>
       </c>
       <c r="J2">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K2">
-        <v>17.12</v>
+        <v>70.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>467860</v>
+        <v>471974</v>
       </c>
       <c r="B3" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C3" s="1">
-        <v>45931.12550925926</v>
+        <v>45943.12550925926</v>
       </c>
       <c r="D3" t="str">
         <v>Daily</v>
       </c>
       <c r="E3" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F3">
-        <v>395.05</v>
+        <v>481.82</v>
       </c>
       <c r="G3">
         <v>0.1</v>
       </c>
       <c r="H3">
-        <v>43.895</v>
+        <v>53.535</v>
       </c>
       <c r="I3" t="str">
-        <v>D99</v>
+        <v>D95</v>
       </c>
       <c r="J3">
         <v>0.0003</v>
       </c>
       <c r="K3">
-        <v>11.85</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>468209</v>
+        <v>472002</v>
       </c>
       <c r="B4" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C4" s="1">
-        <v>45931.12550925926</v>
+        <v>45943.12550925926</v>
       </c>
       <c r="D4" t="str">
         <v>Daily</v>
       </c>
       <c r="E4" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F4">
-        <v>268.75</v>
+        <v>89.98</v>
       </c>
       <c r="G4">
         <v>0.1</v>
       </c>
       <c r="H4">
-        <v>29.861000000000004</v>
+        <v>9.998</v>
       </c>
       <c r="I4" t="str">
-        <v>D89</v>
+        <v>D95</v>
       </c>
       <c r="J4">
         <v>0.0003</v>
       </c>
       <c r="K4">
-        <v>8.06</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>468279</v>
+        <v>472251</v>
       </c>
       <c r="B5" t="str">
-        <v>Cancelled by User</v>
+        <v>Vendor Assigned</v>
       </c>
       <c r="C5" s="1">
-        <v>45932.12550925926</v>
+        <v>45943.12550925926</v>
       </c>
       <c r="D5" t="str">
         <v>Daily</v>
       </c>
       <c r="E5" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F5">
-        <v>467.95</v>
+        <v>565.15</v>
       </c>
       <c r="G5">
         <v>0.1</v>
       </c>
       <c r="H5">
-        <v>51.994</v>
+        <v>62.795</v>
       </c>
       <c r="I5" t="str">
-        <v>D20</v>
+        <v>Z99</v>
       </c>
       <c r="J5">
         <v>0.0003</v>
       </c>
       <c r="K5">
-        <v>14.04</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>468412</v>
+        <v>472271</v>
       </c>
       <c r="B6" t="str">
-        <v>Collect</v>
+        <v>Rental Started</v>
       </c>
       <c r="C6" s="1">
-        <v>45932.12550925926</v>
+        <v>45943.12550925926</v>
       </c>
       <c r="D6" t="str">
-        <v>Weekly</v>
+        <v>Daily</v>
       </c>
       <c r="E6" t="str">
         <v>New</v>
       </c>
       <c r="F6">
-        <v>577.7</v>
+        <v>321.94</v>
       </c>
       <c r="G6">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H6">
-        <v>50.23440000000001</v>
+        <v>34.293</v>
       </c>
       <c r="I6" t="str">
         <v>D95</v>
       </c>
       <c r="J6">
-        <v>0.000325</v>
+        <v>0.0003</v>
       </c>
       <c r="K6">
-        <v>18.78</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>468420</v>
+        <v>472271</v>
       </c>
       <c r="B7" t="str">
         <v>Rental Started</v>
       </c>
       <c r="C7" s="1">
-        <v>45932.12550925926</v>
+        <v>45943.12550925926</v>
       </c>
       <c r="D7" t="str">
-        <v>Monthly</v>
+        <v>Daily</v>
       </c>
       <c r="E7" t="str">
         <v>New</v>
       </c>
       <c r="F7">
-        <v>1610.65</v>
+        <v>-13.3</v>
       </c>
       <c r="G7">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H7">
-        <v>81.9045</v>
+        <v>34.293</v>
       </c>
       <c r="I7" t="str">
         <v>D95</v>
       </c>
       <c r="J7">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="K7">
-        <v>32.21</v>
+        <v>-0.4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8">
-        <v>468646</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Rental Ended</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45933.12550925926</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Daily</v>
-      </c>
-      <c r="E8" t="str">
-        <v>New</v>
-      </c>
-      <c r="F8">
-        <v>294.31</v>
-      </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-      <c r="H8">
-        <v>31.594000000000005</v>
-      </c>
-      <c r="I8" t="str">
-        <v>D50</v>
-      </c>
-      <c r="J8">
-        <v>0.0003</v>
-      </c>
-      <c r="K8">
-        <v>8.83</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>469463</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Cancelled by User</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45934.12550925926</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Daily</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Old</v>
-      </c>
-      <c r="F9">
-        <v>288.95</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>32.105</v>
-      </c>
-      <c r="I9" t="str">
-        <v>D99</v>
-      </c>
-      <c r="J9">
-        <v>0.0003</v>
-      </c>
-      <c r="K9">
-        <v>8.67</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>469736</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Rental Started</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45936.12550925926</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="E10" t="str">
-        <v>New</v>
-      </c>
-      <c r="F10">
-        <v>2490.87</v>
-      </c>
-      <c r="G10">
-        <v>0.05</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10" t="str">
-        <v>D20</v>
-      </c>
-      <c r="J10">
-        <v>0.0002</v>
-      </c>
-      <c r="K10">
-        <v>49.82</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>470018</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Rental Started</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45936.12550925926</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Old</v>
-      </c>
-      <c r="F11">
-        <v>1717.58</v>
-      </c>
-      <c r="G11">
-        <v>0.05</v>
-      </c>
-      <c r="H11">
-        <v>90.399</v>
-      </c>
-      <c r="I11" t="str">
-        <v>D20</v>
-      </c>
-      <c r="J11">
-        <v>0.0002</v>
-      </c>
-      <c r="K11">
-        <v>34.35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>470058</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Rental Ended</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45936.12550925926</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Daily</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Old</v>
-      </c>
-      <c r="F12">
-        <v>89.98</v>
-      </c>
-      <c r="G12">
-        <v>0.1</v>
-      </c>
-      <c r="H12">
-        <v>9.998</v>
-      </c>
-      <c r="I12" t="str">
-        <v>D95</v>
-      </c>
-      <c r="J12">
-        <v>0.0003</v>
-      </c>
-      <c r="K12">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>470071</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Car Assigned</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45937.12550925926</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Old</v>
-      </c>
-      <c r="F13">
-        <v>2238.83</v>
-      </c>
-      <c r="G13">
-        <v>0.05</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="I13" t="str">
-        <v>D95</v>
-      </c>
-      <c r="J13">
-        <v>0.0002</v>
-      </c>
-      <c r="K13">
-        <v>44.78</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>470188</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Rental Started</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45937.12550925926</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="E14" t="str">
-        <v>New</v>
-      </c>
-      <c r="F14">
-        <v>1419.21</v>
-      </c>
-      <c r="G14">
-        <v>0.05</v>
-      </c>
-      <c r="H14">
-        <v>74.6945</v>
-      </c>
-      <c r="I14" t="str">
-        <v>D99</v>
-      </c>
-      <c r="J14">
-        <v>0.0002</v>
-      </c>
-      <c r="K14">
-        <v>28.38</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>470286</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Rental Started</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45937.12550925926</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Daily</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Old</v>
-      </c>
-      <c r="F15">
-        <v>89.98</v>
-      </c>
-      <c r="G15">
-        <v>0.1</v>
-      </c>
-      <c r="H15">
-        <v>9.998</v>
-      </c>
-      <c r="I15" t="str">
-        <v>D20</v>
-      </c>
-      <c r="J15">
-        <v>0.0003</v>
-      </c>
-      <c r="K15">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>470499</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Rental Started</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45938.12550925926</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Daily</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Old</v>
-      </c>
-      <c r="F16">
-        <v>85.48</v>
-      </c>
-      <c r="G16">
-        <v>0.1</v>
-      </c>
-      <c r="H16">
-        <v>9.498</v>
-      </c>
-      <c r="I16" t="str">
-        <v>D49</v>
-      </c>
-      <c r="J16">
-        <v>0.0003</v>
-      </c>
-      <c r="K16">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>470583</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Rental Started</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45938.12550925926</v>
-      </c>
-      <c r="D17" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Old</v>
-      </c>
-      <c r="F17">
-        <v>1901.9</v>
-      </c>
-      <c r="G17">
-        <v>0.05</v>
-      </c>
-      <c r="H17">
-        <v>100</v>
-      </c>
-      <c r="I17" t="str">
-        <v>D12</v>
-      </c>
-      <c r="J17">
-        <v>0.0002</v>
-      </c>
-      <c r="K17">
-        <v>38.04</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>470611</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Rental Started</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45938.12550925926</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Weekly</v>
-      </c>
-      <c r="E18" t="str">
-        <v>New</v>
-      </c>
-      <c r="F18">
-        <v>554.59</v>
-      </c>
-      <c r="G18">
-        <v>0.08</v>
-      </c>
-      <c r="H18">
-        <v>46.59439999999999</v>
-      </c>
-      <c r="I18" t="str">
-        <v>D33</v>
-      </c>
-      <c r="J18">
-        <v>0.000325</v>
-      </c>
-      <c r="K18">
-        <v>18.02</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>470671</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Car Assigned</v>
-      </c>
-      <c r="C19" s="1">
-        <v>45938.12550925926</v>
-      </c>
-      <c r="D19" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="E19" t="str">
-        <v>New</v>
-      </c>
-      <c r="F19">
-        <v>1594.1</v>
-      </c>
-      <c r="G19">
-        <v>0.05</v>
-      </c>
-      <c r="H19">
-        <v>83.8995</v>
-      </c>
-      <c r="I19" t="str">
-        <v>D95</v>
-      </c>
-      <c r="J19">
-        <v>0.0002</v>
-      </c>
-      <c r="K19">
-        <v>31.88</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>470798</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Cancelled by User</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45938.12550925926</v>
-      </c>
-      <c r="D20" t="str">
-        <v>Daily</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Old</v>
-      </c>
-      <c r="F20">
-        <v>89.98</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-      <c r="H20">
-        <v>9.998</v>
-      </c>
-      <c r="I20" t="str">
-        <v>D20</v>
-      </c>
-      <c r="J20">
-        <v>0.0003</v>
-      </c>
-      <c r="K20">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="21"/>
+    <row r="8"/>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Updates/Input data/Bookings With Publisher Promo (10).xlsx
+++ b/Updates/Input data/Bookings With Publisher Promo (10).xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,48 +418,48 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>471191</v>
+        <v>476042</v>
       </c>
       <c r="B2" t="str">
-        <v>Vendor Assigned</v>
+        <v>Car Assigned</v>
       </c>
       <c r="C2" s="1">
-        <v>45943.12550925926</v>
+        <v>45956.12550925926</v>
       </c>
       <c r="D2" t="str">
-        <v>Monthly</v>
+        <v>Weekly</v>
       </c>
       <c r="E2" t="str">
         <v>Old</v>
       </c>
       <c r="F2">
-        <v>3543.73</v>
+        <v>1013.32</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>85.1352</v>
       </c>
       <c r="I2" t="str">
-        <v>D20</v>
+        <v>D95</v>
       </c>
       <c r="J2">
-        <v>0.0002</v>
+        <v>0.000325</v>
       </c>
       <c r="K2">
-        <v>70.87</v>
+        <v>32.93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>471974</v>
+        <v>477148</v>
       </c>
       <c r="B3" t="str">
-        <v>Rental Started</v>
+        <v>Car Assigned</v>
       </c>
       <c r="C3" s="1">
-        <v>45943.12550925926</v>
+        <v>45956.12550925926</v>
       </c>
       <c r="D3" t="str">
         <v>Daily</v>
@@ -468,13 +468,13 @@
         <v>Old</v>
       </c>
       <c r="F3">
-        <v>481.82</v>
+        <v>106.18</v>
       </c>
       <c r="G3">
         <v>0.1</v>
       </c>
       <c r="H3">
-        <v>53.535</v>
+        <v>11.798</v>
       </c>
       <c r="I3" t="str">
         <v>D95</v>
@@ -483,18 +483,18 @@
         <v>0.0003</v>
       </c>
       <c r="K3">
-        <v>14.45</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>472002</v>
+        <v>477159</v>
       </c>
       <c r="B4" t="str">
-        <v>Rental Started</v>
+        <v>Vendor Assigned</v>
       </c>
       <c r="C4" s="1">
-        <v>45943.12550925926</v>
+        <v>45956.12550925926</v>
       </c>
       <c r="D4" t="str">
         <v>Daily</v>
@@ -503,33 +503,33 @@
         <v>Old</v>
       </c>
       <c r="F4">
-        <v>89.98</v>
+        <v>101.67</v>
       </c>
       <c r="G4">
         <v>0.1</v>
       </c>
       <c r="H4">
-        <v>9.998</v>
+        <v>11.298</v>
       </c>
       <c r="I4" t="str">
-        <v>D95</v>
+        <v>D100</v>
       </c>
       <c r="J4">
         <v>0.0003</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>472251</v>
+        <v>477252</v>
       </c>
       <c r="B5" t="str">
         <v>Vendor Assigned</v>
       </c>
       <c r="C5" s="1">
-        <v>45943.12550925926</v>
+        <v>45956.12550925926</v>
       </c>
       <c r="D5" t="str">
         <v>Daily</v>
@@ -538,98 +538,28 @@
         <v>Old</v>
       </c>
       <c r="F5">
-        <v>565.15</v>
+        <v>690.9</v>
       </c>
       <c r="G5">
         <v>0.1</v>
       </c>
       <c r="H5">
-        <v>62.795</v>
+        <v>73.8924</v>
       </c>
       <c r="I5" t="str">
-        <v>Z99</v>
+        <v>D100</v>
       </c>
       <c r="J5">
         <v>0.0003</v>
       </c>
       <c r="K5">
-        <v>16.95</v>
+        <v>20.73</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
-        <v>472271</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Rental Started</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45943.12550925926</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Daily</v>
-      </c>
-      <c r="E6" t="str">
-        <v>New</v>
-      </c>
-      <c r="F6">
-        <v>321.94</v>
-      </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-      <c r="H6">
-        <v>34.293</v>
-      </c>
-      <c r="I6" t="str">
-        <v>D95</v>
-      </c>
-      <c r="J6">
-        <v>0.0003</v>
-      </c>
-      <c r="K6">
-        <v>9.66</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>472271</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Rental Started</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45943.12550925926</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Daily</v>
-      </c>
-      <c r="E7" t="str">
-        <v>New</v>
-      </c>
-      <c r="F7">
-        <v>-13.3</v>
-      </c>
-      <c r="G7">
-        <v>0.1</v>
-      </c>
-      <c r="H7">
-        <v>34.293</v>
-      </c>
-      <c r="I7" t="str">
-        <v>D95</v>
-      </c>
-      <c r="J7">
-        <v>0.0003</v>
-      </c>
-      <c r="K7">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="8"/>
+    <row r="6"/>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Updates/Input data/Bookings With Publisher Promo (10).xlsx
+++ b/Updates/Input data/Bookings With Publisher Promo (10).xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,13 +418,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>476042</v>
+        <v>462144</v>
       </c>
       <c r="B2" t="str">
-        <v>Car Assigned</v>
+        <v>Collect</v>
       </c>
       <c r="C2" s="1">
-        <v>45956.12550925926</v>
+        <v>45951.12550925926</v>
       </c>
       <c r="D2" t="str">
         <v>Weekly</v>
@@ -433,33 +433,33 @@
         <v>Old</v>
       </c>
       <c r="F2">
-        <v>1013.32</v>
+        <v>1153.79</v>
       </c>
       <c r="G2">
         <v>0.08</v>
       </c>
       <c r="H2">
-        <v>85.1352</v>
+        <v>100</v>
       </c>
       <c r="I2" t="str">
-        <v>D95</v>
+        <v>D12</v>
       </c>
       <c r="J2">
         <v>0.000325</v>
       </c>
       <c r="K2">
-        <v>32.93</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>477148</v>
+        <v>470499</v>
       </c>
       <c r="B3" t="str">
-        <v>Car Assigned</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C3" s="1">
-        <v>45956.12550925926</v>
+        <v>45938.12550925926</v>
       </c>
       <c r="D3" t="str">
         <v>Daily</v>
@@ -468,98 +468,2968 @@
         <v>Old</v>
       </c>
       <c r="F3">
-        <v>106.18</v>
+        <v>85.48</v>
       </c>
       <c r="G3">
         <v>0.1</v>
       </c>
       <c r="H3">
-        <v>11.798</v>
+        <v>9.498</v>
       </c>
       <c r="I3" t="str">
-        <v>D95</v>
+        <v>D49</v>
       </c>
       <c r="J3">
         <v>0.0003</v>
       </c>
       <c r="K3">
-        <v>3.19</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>477159</v>
+        <v>470583</v>
       </c>
       <c r="B4" t="str">
-        <v>Vendor Assigned</v>
+        <v>Rental Started</v>
       </c>
       <c r="C4" s="1">
-        <v>45956.12550925926</v>
+        <v>45938.12550925926</v>
       </c>
       <c r="D4" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E4" t="str">
         <v>Old</v>
       </c>
       <c r="F4">
-        <v>101.67</v>
+        <v>1901.9</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H4">
-        <v>11.298</v>
+        <v>100</v>
       </c>
       <c r="I4" t="str">
-        <v>D100</v>
+        <v>D12</v>
       </c>
       <c r="J4">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K4">
-        <v>3.05</v>
+        <v>38.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>470611</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45938.12550925926</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Weekly</v>
+      </c>
+      <c r="E5" t="str">
+        <v>New</v>
+      </c>
+      <c r="F5">
+        <v>554.59</v>
+      </c>
+      <c r="G5">
+        <v>0.08</v>
+      </c>
+      <c r="H5">
+        <v>46.59439999999999</v>
+      </c>
+      <c r="I5" t="str">
+        <v>D33</v>
+      </c>
+      <c r="J5">
+        <v>0.000325</v>
+      </c>
+      <c r="K5">
+        <v>18.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>470628</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45941.12550925926</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F6">
+        <v>170.97</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>18.997</v>
+      </c>
+      <c r="I6" t="str">
+        <v>D20</v>
+      </c>
+      <c r="J6">
+        <v>0.0003</v>
+      </c>
+      <c r="K6">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>470671</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45938.12550925926</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E7" t="str">
+        <v>New</v>
+      </c>
+      <c r="F7">
+        <v>1594.1</v>
+      </c>
+      <c r="G7">
+        <v>0.05</v>
+      </c>
+      <c r="H7">
+        <v>83.8995</v>
+      </c>
+      <c r="I7" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J7">
+        <v>0.0002</v>
+      </c>
+      <c r="K7">
+        <v>31.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>470798</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Cancelled by User</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45938.12550925926</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F8">
+        <v>89.98</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>9.998</v>
+      </c>
+      <c r="I8" t="str">
+        <v>D20</v>
+      </c>
+      <c r="J8">
+        <v>0.0003</v>
+      </c>
+      <c r="K8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>470832</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45939.12550925926</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F9">
+        <v>142.17</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>15.797</v>
+      </c>
+      <c r="I9" t="str">
+        <v>D20</v>
+      </c>
+      <c r="J9">
+        <v>0.0003</v>
+      </c>
+      <c r="K9">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>470837</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45939.12550925926</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E10" t="str">
+        <v>New</v>
+      </c>
+      <c r="F10">
+        <v>664.15</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>73.79400000000001</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Z21</v>
+      </c>
+      <c r="J10">
+        <v>0.0003</v>
+      </c>
+      <c r="K10">
+        <v>19.92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>470853</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45939.12550925926</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F11">
+        <v>419.42</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>46.602</v>
+      </c>
+      <c r="I11" t="str">
+        <v>D12</v>
+      </c>
+      <c r="J11">
+        <v>0.0003</v>
+      </c>
+      <c r="K11">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>470886</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45939.12550925926</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F12">
+        <v>89.98</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>9.998</v>
+      </c>
+      <c r="I12" t="str">
+        <v>D50</v>
+      </c>
+      <c r="J12">
+        <v>0.0003</v>
+      </c>
+      <c r="K12">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>471037</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45940.12550925926</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F13">
+        <v>133.17</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>14.796699999999998</v>
+      </c>
+      <c r="I13" t="str">
+        <v>D20</v>
+      </c>
+      <c r="J13">
+        <v>0.0003</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>471128</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45939.12550925926</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F14">
+        <v>152.98</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>16.998</v>
+      </c>
+      <c r="I14" t="str">
+        <v>D12</v>
+      </c>
+      <c r="J14">
+        <v>0.0003</v>
+      </c>
+      <c r="K14">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>471173</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45942.12550925926</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F15">
+        <v>597.55</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>66.392</v>
+      </c>
+      <c r="I15" t="str">
+        <v>D12</v>
+      </c>
+      <c r="J15">
+        <v>0.0003</v>
+      </c>
+      <c r="K15">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>471191</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45943.12550925926</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F16">
+        <v>3543.73</v>
+      </c>
+      <c r="G16">
+        <v>0.05</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16" t="str">
+        <v>D20</v>
+      </c>
+      <c r="J16">
+        <v>0.0002</v>
+      </c>
+      <c r="K16">
+        <v>70.87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>471198</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45940.12550925926</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F17">
+        <v>136.81</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>15.201</v>
+      </c>
+      <c r="I17" t="str">
+        <v>D10</v>
+      </c>
+      <c r="J17">
+        <v>0.0003</v>
+      </c>
+      <c r="K17">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>471240</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45940.12550925926</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F18">
+        <v>299.06</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>32.105</v>
+      </c>
+      <c r="I18" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J18">
+        <v>0.0003</v>
+      </c>
+      <c r="K18">
+        <v>8.97</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>471369</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45940.12550925926</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F19">
+        <v>1603.49</v>
+      </c>
+      <c r="G19">
+        <v>0.05</v>
+      </c>
+      <c r="H19">
+        <v>81.39450000000001</v>
+      </c>
+      <c r="I19" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J19">
+        <v>0.0002</v>
+      </c>
+      <c r="K19">
+        <v>32.07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>471399</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45940.12550925926</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F20">
+        <v>149.38</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>16.598000000000003</v>
+      </c>
+      <c r="I20" t="str">
+        <v>D33</v>
+      </c>
+      <c r="J20">
+        <v>0.0003</v>
+      </c>
+      <c r="K20">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>471412</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45940.12550925926</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F21">
+        <v>330.64</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>35.494</v>
+      </c>
+      <c r="I21" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J21">
+        <v>0.0003</v>
+      </c>
+      <c r="K21">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>471461</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45941.12550925926</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F22">
+        <v>133.17</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>14.796699999999998</v>
+      </c>
+      <c r="I22" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J22">
+        <v>0.0003</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>471555</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45941.12550925926</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F23">
+        <v>270.86</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>30.096000000000004</v>
+      </c>
+      <c r="I23" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J23">
+        <v>0.0003</v>
+      </c>
+      <c r="K23">
+        <v>8.13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>471583</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Cancelled by User</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45941.12550925926</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F24">
+        <v>195.26</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>21.697</v>
+      </c>
+      <c r="I24" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J24">
+        <v>0.0003</v>
+      </c>
+      <c r="K24">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>471854</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45942.12550925926</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F25">
+        <v>1630.87</v>
+      </c>
+      <c r="G25">
+        <v>0.05</v>
+      </c>
+      <c r="H25">
+        <v>85.8345</v>
+      </c>
+      <c r="I25" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J25">
+        <v>0.0002</v>
+      </c>
+      <c r="K25">
+        <v>32.62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>471974</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45943.12550925926</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F26">
+        <v>481.82</v>
+      </c>
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <v>53.535</v>
+      </c>
+      <c r="I26" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J26">
+        <v>0.0003</v>
+      </c>
+      <c r="K26">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>472002</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45943.12550925926</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F27">
+        <v>89.98</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
+        <v>9.998</v>
+      </c>
+      <c r="I27" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J27">
+        <v>0.0003</v>
+      </c>
+      <c r="K27">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>472036</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45942.12550925926</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F28">
+        <v>319.46</v>
+      </c>
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
+        <v>35.49400000000001</v>
+      </c>
+      <c r="I28" t="str">
+        <v>D12</v>
+      </c>
+      <c r="J28">
+        <v>0.0003</v>
+      </c>
+      <c r="K28">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>472079</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45942.12550925926</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Weekly</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F29">
+        <v>1266.27</v>
+      </c>
+      <c r="G29">
+        <v>0.08</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J29">
+        <v>0.000325</v>
+      </c>
+      <c r="K29">
+        <v>41.15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>472103</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45942.12550925926</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F30">
+        <v>117.93</v>
+      </c>
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+      <c r="H30">
+        <v>13.102</v>
+      </c>
+      <c r="I30" t="str">
+        <v>D13</v>
+      </c>
+      <c r="J30">
+        <v>0.0003</v>
+      </c>
+      <c r="K30">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>472224</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Cancelled by User</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45942.12550925926</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E31" t="str">
+        <v>New</v>
+      </c>
+      <c r="F31">
+        <v>340.18</v>
+      </c>
+      <c r="G31">
+        <v>0.1</v>
+      </c>
+      <c r="H31">
+        <v>37.798</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Z10</v>
+      </c>
+      <c r="J31">
+        <v>0.0003</v>
+      </c>
+      <c r="K31">
+        <v>10.21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>472251</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45943.12550925926</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F32">
+        <v>565.15</v>
+      </c>
+      <c r="G32">
+        <v>0.1</v>
+      </c>
+      <c r="H32">
+        <v>62.795</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Z99</v>
+      </c>
+      <c r="J32">
+        <v>0.0003</v>
+      </c>
+      <c r="K32">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>472271</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45943.12550925926</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E33" t="str">
+        <v>New</v>
+      </c>
+      <c r="F33">
+        <v>308.64</v>
+      </c>
+      <c r="G33">
+        <v>0.1</v>
+      </c>
+      <c r="H33">
+        <v>34.293</v>
+      </c>
+      <c r="I33" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J33">
+        <v>0.0003</v>
+      </c>
+      <c r="K33">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>472562</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45945.12550925926</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F34">
+        <v>264.63</v>
+      </c>
+      <c r="G34">
+        <v>0.1</v>
+      </c>
+      <c r="H34">
+        <v>28.301</v>
+      </c>
+      <c r="I34" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J34">
+        <v>0.0003</v>
+      </c>
+      <c r="K34">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>472785</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45944.12550925926</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E35" t="str">
+        <v>New</v>
+      </c>
+      <c r="F35">
+        <v>570.5</v>
+      </c>
+      <c r="G35">
+        <v>0.1</v>
+      </c>
+      <c r="H35">
+        <v>63.38900000000002</v>
+      </c>
+      <c r="I35" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J35">
+        <v>0.0003</v>
+      </c>
+      <c r="K35">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>472915</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45944.12550925926</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F36">
+        <v>89.98</v>
+      </c>
+      <c r="G36">
+        <v>0.1</v>
+      </c>
+      <c r="H36">
+        <v>9.998</v>
+      </c>
+      <c r="I36" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J36">
+        <v>0.0003</v>
+      </c>
+      <c r="K36">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>472939</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45944.12550925926</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F37">
+        <v>89.98</v>
+      </c>
+      <c r="G37">
+        <v>0.1</v>
+      </c>
+      <c r="H37">
+        <v>9.998</v>
+      </c>
+      <c r="I37" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J37">
+        <v>0.0003</v>
+      </c>
+      <c r="K37">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>473044</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45945.12550925926</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F38">
+        <v>152.08</v>
+      </c>
+      <c r="G38">
+        <v>0.1</v>
+      </c>
+      <c r="H38">
+        <v>16.898</v>
+      </c>
+      <c r="I38" t="str">
+        <v>D20</v>
+      </c>
+      <c r="J38">
+        <v>0.0003</v>
+      </c>
+      <c r="K38">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>473047</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45945.12550925926</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F39">
+        <v>89.98</v>
+      </c>
+      <c r="G39">
+        <v>0.1</v>
+      </c>
+      <c r="H39">
+        <v>9.998</v>
+      </c>
+      <c r="I39" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J39">
+        <v>0.0003</v>
+      </c>
+      <c r="K39">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>473362</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45946.12550925926</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E40" t="str">
+        <v>New</v>
+      </c>
+      <c r="F40">
+        <v>1898.96</v>
+      </c>
+      <c r="G40">
+        <v>0.05</v>
+      </c>
+      <c r="H40">
+        <v>99.945</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Z95</v>
+      </c>
+      <c r="J40">
+        <v>0.0002</v>
+      </c>
+      <c r="K40">
+        <v>37.98</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>473377</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45945.12550925926</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E41" t="str">
+        <v>New</v>
+      </c>
+      <c r="F41">
+        <v>116.1</v>
+      </c>
+      <c r="G41">
+        <v>0.1</v>
+      </c>
+      <c r="H41">
+        <v>12.899000000000001</v>
+      </c>
+      <c r="I41" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J41">
+        <v>0.0003</v>
+      </c>
+      <c r="K41">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>473396</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45948.12550925926</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F42">
+        <v>170.97</v>
+      </c>
+      <c r="G42">
+        <v>0.1</v>
+      </c>
+      <c r="H42">
+        <v>18.997</v>
+      </c>
+      <c r="I42" t="str">
+        <v>D12</v>
+      </c>
+      <c r="J42">
+        <v>0.0003</v>
+      </c>
+      <c r="K42">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>473412</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45946.12550925926</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Weekly</v>
+      </c>
+      <c r="E43" t="str">
+        <v>New</v>
+      </c>
+      <c r="F43">
+        <v>341.15</v>
+      </c>
+      <c r="G43">
+        <v>0.08</v>
+      </c>
+      <c r="H43">
+        <v>37.904999999999994</v>
+      </c>
+      <c r="I43" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J43">
+        <v>0.000325</v>
+      </c>
+      <c r="K43">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>473461</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45946.12550925926</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F44">
+        <v>169.2</v>
+      </c>
+      <c r="G44">
+        <v>0.1</v>
+      </c>
+      <c r="H44">
+        <v>18.8</v>
+      </c>
+      <c r="I44" t="str">
+        <v>D7</v>
+      </c>
+      <c r="J44">
+        <v>0.0003</v>
+      </c>
+      <c r="K44">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>473746</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45946.12550925926</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Weekly</v>
+      </c>
+      <c r="E45" t="str">
+        <v>New</v>
+      </c>
+      <c r="F45">
+        <v>735.02</v>
+      </c>
+      <c r="G45">
+        <v>0.08</v>
+      </c>
+      <c r="H45">
+        <v>63.91383999999999</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Z25</v>
+      </c>
+      <c r="J45">
+        <v>0.000325</v>
+      </c>
+      <c r="K45">
+        <v>23.89</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>473774</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45946.12550925926</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F46">
+        <v>98.98</v>
+      </c>
+      <c r="G46">
+        <v>0.1</v>
+      </c>
+      <c r="H46">
+        <v>10.998</v>
+      </c>
+      <c r="I46" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J46">
+        <v>0.0003</v>
+      </c>
+      <c r="K46">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>473917</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45947.12550925926</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F47">
+        <v>182.67</v>
+      </c>
+      <c r="G47">
+        <v>0.1</v>
+      </c>
+      <c r="H47">
+        <v>20.297900000000002</v>
+      </c>
+      <c r="I47" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J47">
+        <v>0.0003</v>
+      </c>
+      <c r="K47">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>474048</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45947.12550925926</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F48">
+        <v>98.99</v>
+      </c>
+      <c r="G48">
+        <v>0.1</v>
+      </c>
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J48">
+        <v>0.0003</v>
+      </c>
+      <c r="K48">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>474114</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45948.12550925926</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E49" t="str">
+        <v>New</v>
+      </c>
+      <c r="F49">
+        <v>142.17</v>
+      </c>
+      <c r="G49">
+        <v>0.1</v>
+      </c>
+      <c r="H49">
+        <v>15.797</v>
+      </c>
+      <c r="I49" t="str">
+        <v>D20</v>
+      </c>
+      <c r="J49">
+        <v>0.0003</v>
+      </c>
+      <c r="K49">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>474123</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45947.12550925926</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E50" t="str">
+        <v>New</v>
+      </c>
+      <c r="F50">
+        <v>314.08</v>
+      </c>
+      <c r="G50">
+        <v>0.1</v>
+      </c>
+      <c r="H50">
+        <v>34.897000000000006</v>
+      </c>
+      <c r="I50" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J50">
+        <v>0.0003</v>
+      </c>
+      <c r="K50">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>474138</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45948.12550925926</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F51">
+        <v>224.97</v>
+      </c>
+      <c r="G51">
+        <v>0.1</v>
+      </c>
+      <c r="H51">
+        <v>24.997</v>
+      </c>
+      <c r="I51" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J51">
+        <v>0.0003</v>
+      </c>
+      <c r="K51">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>474156</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45948.12550925926</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F52">
+        <v>1716.37</v>
+      </c>
+      <c r="G52">
+        <v>0.05</v>
+      </c>
+      <c r="H52">
+        <v>90.3345</v>
+      </c>
+      <c r="I52" t="str">
+        <v>D12</v>
+      </c>
+      <c r="J52">
+        <v>0.0002</v>
+      </c>
+      <c r="K52">
+        <v>34.33</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>474226</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45948.12550925926</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F53">
+        <v>123.29</v>
+      </c>
+      <c r="G53">
+        <v>0.1</v>
+      </c>
+      <c r="H53">
+        <v>13.698</v>
+      </c>
+      <c r="I53" t="str">
+        <v>D99</v>
+      </c>
+      <c r="J53">
+        <v>0.0003</v>
+      </c>
+      <c r="K53">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>474501</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45948.12550925926</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F54">
+        <v>125.98</v>
+      </c>
+      <c r="G54">
+        <v>0.1</v>
+      </c>
+      <c r="H54">
+        <v>13.998000000000001</v>
+      </c>
+      <c r="I54" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J54">
+        <v>0.0003</v>
+      </c>
+      <c r="K54">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>474553</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45949.12550925926</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F55">
+        <v>89.98</v>
+      </c>
+      <c r="G55">
+        <v>0.1</v>
+      </c>
+      <c r="H55">
+        <v>9.998</v>
+      </c>
+      <c r="I55" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J55">
+        <v>0.0003</v>
+      </c>
+      <c r="K55">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>474709</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Car Assigned</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45949.12550925926</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F56">
+        <v>2782.78</v>
+      </c>
+      <c r="G56">
+        <v>0.05</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56" t="str">
+        <v>D20</v>
+      </c>
+      <c r="J56">
+        <v>0.0002</v>
+      </c>
+      <c r="K56">
+        <v>55.66</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>474720</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45949.12550925926</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F57">
+        <v>105.28</v>
+      </c>
+      <c r="G57">
+        <v>0.1</v>
+      </c>
+      <c r="H57">
+        <v>11.7</v>
+      </c>
+      <c r="I57" t="str">
+        <v>D50</v>
+      </c>
+      <c r="J57">
+        <v>0.0003</v>
+      </c>
+      <c r="K57">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>474824</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45949.12550925926</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F58">
+        <v>89.98</v>
+      </c>
+      <c r="G58">
+        <v>0.1</v>
+      </c>
+      <c r="H58">
+        <v>9.998</v>
+      </c>
+      <c r="I58" t="str">
+        <v>D50</v>
+      </c>
+      <c r="J58">
+        <v>0.0003</v>
+      </c>
+      <c r="K58">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>474838</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45949.12550925926</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F59">
+        <v>161.09</v>
+      </c>
+      <c r="G59">
+        <v>0.1</v>
+      </c>
+      <c r="H59">
+        <v>17.898</v>
+      </c>
+      <c r="I59" t="str">
+        <v>D50</v>
+      </c>
+      <c r="J59">
+        <v>0.0003</v>
+      </c>
+      <c r="K59">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>474855</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45950.12550925926</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Weekly</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F60">
+        <v>2006.28</v>
+      </c>
+      <c r="G60">
+        <v>0.08</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="I60" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J60">
+        <v>0.000325</v>
+      </c>
+      <c r="K60">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>474888</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45950.12550925926</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F61">
+        <v>208.75</v>
+      </c>
+      <c r="G61">
+        <v>0.1</v>
+      </c>
+      <c r="H61">
+        <v>23.195</v>
+      </c>
+      <c r="I61" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J61">
+        <v>0.0003</v>
+      </c>
+      <c r="K61">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>474899</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45950.12550925926</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E62" t="str">
+        <v>New</v>
+      </c>
+      <c r="F62">
+        <v>1720.88</v>
+      </c>
+      <c r="G62">
+        <v>0.05</v>
+      </c>
+      <c r="H62">
+        <v>85.817775</v>
+      </c>
+      <c r="I62" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J62">
+        <v>0.0002</v>
+      </c>
+      <c r="K62">
+        <v>34.42</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>475021</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45950.12550925926</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E63" t="str">
+        <v>New</v>
+      </c>
+      <c r="F63">
+        <v>116.98</v>
+      </c>
+      <c r="G63">
+        <v>0.1</v>
+      </c>
+      <c r="H63">
+        <v>12.998</v>
+      </c>
+      <c r="I63" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J63">
+        <v>0.0003</v>
+      </c>
+      <c r="K63">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>475176</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45952.12550925926</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F64">
+        <v>2272.48</v>
+      </c>
+      <c r="G64">
+        <v>0.05</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+      <c r="I64" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J64">
+        <v>0.0002</v>
+      </c>
+      <c r="K64">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>475730</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45952.12550925926</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F65">
+        <v>173.76</v>
+      </c>
+      <c r="G65">
+        <v>0.1</v>
+      </c>
+      <c r="H65">
+        <v>19.308000000000003</v>
+      </c>
+      <c r="I65" t="str">
+        <v>D65</v>
+      </c>
+      <c r="J65">
+        <v>0.0003</v>
+      </c>
+      <c r="K65">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>475774</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45953.12550925926</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E66" t="str">
+        <v>New</v>
+      </c>
+      <c r="F66">
+        <v>1583.46</v>
+      </c>
+      <c r="G66">
+        <v>0.05</v>
+      </c>
+      <c r="H66">
+        <v>83.34</v>
+      </c>
+      <c r="I66" t="str">
+        <v>D12</v>
+      </c>
+      <c r="J66">
+        <v>0.0002</v>
+      </c>
+      <c r="K66">
+        <v>31.67</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>475926</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45952.12550925926</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F67">
+        <v>125.99</v>
+      </c>
+      <c r="G67">
+        <v>0.1</v>
+      </c>
+      <c r="H67">
+        <v>13.999</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Z96</v>
+      </c>
+      <c r="J67">
+        <v>0.0003</v>
+      </c>
+      <c r="K67">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>476036</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45953.12550925926</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F68">
+        <v>173.76</v>
+      </c>
+      <c r="G68">
+        <v>0.1</v>
+      </c>
+      <c r="H68">
+        <v>19.308000000000003</v>
+      </c>
+      <c r="I68" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J68">
+        <v>0.0003</v>
+      </c>
+      <c r="K68">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>476042</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45956.12550925926</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Weekly</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F69">
+        <v>1013.32</v>
+      </c>
+      <c r="G69">
+        <v>0.08</v>
+      </c>
+      <c r="H69">
+        <v>85.1352</v>
+      </c>
+      <c r="I69" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J69">
+        <v>0.000325</v>
+      </c>
+      <c r="K69">
+        <v>32.93</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>476538</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45954.12550925926</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F70">
+        <v>108.86</v>
+      </c>
+      <c r="G70">
+        <v>0.1</v>
+      </c>
+      <c r="H70">
+        <v>12.096999999999998</v>
+      </c>
+      <c r="I70" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J70">
+        <v>0.0003</v>
+      </c>
+      <c r="K70">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>476539</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45954.12550925926</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F71">
+        <v>325.14</v>
+      </c>
+      <c r="G71">
+        <v>0.1</v>
+      </c>
+      <c r="H71">
+        <v>34.905</v>
+      </c>
+      <c r="I71" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J71">
+        <v>0.0003</v>
+      </c>
+      <c r="K71">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>476741</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45954.12550925926</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F72">
+        <v>253.75</v>
+      </c>
+      <c r="G72">
+        <v>0.1</v>
+      </c>
+      <c r="H72">
+        <v>28.195</v>
+      </c>
+      <c r="I72" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J72">
+        <v>0.0003</v>
+      </c>
+      <c r="K72">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>476804</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45955.12550925926</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F73">
+        <v>1654.9</v>
+      </c>
+      <c r="G73">
+        <v>0.05</v>
+      </c>
+      <c r="H73">
+        <v>84.15449999999998</v>
+      </c>
+      <c r="I73" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J73">
+        <v>0.0002</v>
+      </c>
+      <c r="K73">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>476817</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45954.12550925926</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F74">
+        <v>440.96</v>
+      </c>
+      <c r="G74">
+        <v>0.1</v>
+      </c>
+      <c r="H74">
+        <v>48.996</v>
+      </c>
+      <c r="I74" t="str">
+        <v>D12</v>
+      </c>
+      <c r="J74">
+        <v>0.0003</v>
+      </c>
+      <c r="K74">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>476827</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45954.12550925926</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F75">
+        <v>89.98</v>
+      </c>
+      <c r="G75">
+        <v>0.1</v>
+      </c>
+      <c r="H75">
+        <v>9.998</v>
+      </c>
+      <c r="I75" t="str">
+        <v>D8</v>
+      </c>
+      <c r="J75">
+        <v>0.0003</v>
+      </c>
+      <c r="K75">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>476867</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45955.12550925926</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F76">
+        <v>187.17</v>
+      </c>
+      <c r="G76">
+        <v>0.1</v>
+      </c>
+      <c r="H76">
+        <v>20.796999999999997</v>
+      </c>
+      <c r="I76" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J76">
+        <v>0.0003</v>
+      </c>
+      <c r="K76">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>476997</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45955.12550925926</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F77">
+        <v>116.98</v>
+      </c>
+      <c r="G77">
+        <v>0.1</v>
+      </c>
+      <c r="H77">
+        <v>12.997800000000002</v>
+      </c>
+      <c r="I77" t="str">
+        <v>D100</v>
+      </c>
+      <c r="J77">
+        <v>0.0003</v>
+      </c>
+      <c r="K77">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>477148</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45956.12550925926</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F78">
+        <v>106.18</v>
+      </c>
+      <c r="G78">
+        <v>0.1</v>
+      </c>
+      <c r="H78">
+        <v>11.798</v>
+      </c>
+      <c r="I78" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J78">
+        <v>0.0003</v>
+      </c>
+      <c r="K78">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>477159</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45956.12550925926</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F79">
+        <v>101.67</v>
+      </c>
+      <c r="G79">
+        <v>0.1</v>
+      </c>
+      <c r="H79">
+        <v>11.298</v>
+      </c>
+      <c r="I79" t="str">
+        <v>D100</v>
+      </c>
+      <c r="J79">
+        <v>0.0003</v>
+      </c>
+      <c r="K79">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>477161</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45955.12550925926</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F80">
+        <v>130.47</v>
+      </c>
+      <c r="G80">
+        <v>0.1</v>
+      </c>
+      <c r="H80">
+        <v>14.497</v>
+      </c>
+      <c r="I80" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J80">
+        <v>0.0003</v>
+      </c>
+      <c r="K80">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
         <v>477252</v>
       </c>
-      <c r="B5" t="str">
-        <v>Vendor Assigned</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B81" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C81" s="1">
         <v>45956.12550925926</v>
       </c>
-      <c r="D5" t="str">
-        <v>Daily</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Old</v>
-      </c>
-      <c r="F5">
+      <c r="D81" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F81">
         <v>690.9</v>
       </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5">
+      <c r="G81">
+        <v>0.1</v>
+      </c>
+      <c r="H81">
         <v>73.8924</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I81" t="str">
         <v>D100</v>
       </c>
-      <c r="J5">
-        <v>0.0003</v>
-      </c>
-      <c r="K5">
+      <c r="J81">
+        <v>0.0003</v>
+      </c>
+      <c r="K81">
         <v>20.73</v>
       </c>
     </row>
-    <row r="6"/>
+    <row r="82">
+      <c r="A82">
+        <v>477302</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45957.12550925926</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F82">
+        <v>627.24</v>
+      </c>
+      <c r="G82">
+        <v>0.1</v>
+      </c>
+      <c r="H82">
+        <v>69.69300000000001</v>
+      </c>
+      <c r="I82" t="str">
+        <v>D100</v>
+      </c>
+      <c r="J82">
+        <v>0.0003</v>
+      </c>
+      <c r="K82">
+        <v>18.82</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>477419</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Cancelled by User</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45956.12550925926</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F83">
+        <v>107.98</v>
+      </c>
+      <c r="G83">
+        <v>0.1</v>
+      </c>
+      <c r="H83">
+        <v>11.998</v>
+      </c>
+      <c r="I83" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J83">
+        <v>0.0003</v>
+      </c>
+      <c r="K83">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>477504</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45957.12550925926</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E84" t="str">
+        <v>New</v>
+      </c>
+      <c r="F84">
+        <v>193.47</v>
+      </c>
+      <c r="G84">
+        <v>0.1</v>
+      </c>
+      <c r="H84">
+        <v>21.497</v>
+      </c>
+      <c r="I84" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J84">
+        <v>0.0003</v>
+      </c>
+      <c r="K84">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>477647</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45957.12550925926</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Weekly</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F85">
+        <v>660.56</v>
+      </c>
+      <c r="G85">
+        <v>0.08</v>
+      </c>
+      <c r="H85">
+        <v>57.44</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Z77</v>
+      </c>
+      <c r="J85">
+        <v>0.000325</v>
+      </c>
+      <c r="K85">
+        <v>21.47</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>477658</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45957.12550925926</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F86">
+        <v>161.09</v>
+      </c>
+      <c r="G86">
+        <v>0.1</v>
+      </c>
+      <c r="H86">
+        <v>17.898</v>
+      </c>
+      <c r="I86" t="str">
+        <v>D100</v>
+      </c>
+      <c r="J86">
+        <v>0.0003</v>
+      </c>
+      <c r="K86">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>477662</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45957.12550925926</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E87" t="str">
+        <v>New</v>
+      </c>
+      <c r="F87">
+        <v>89.99</v>
+      </c>
+      <c r="G87">
+        <v>0.1</v>
+      </c>
+      <c r="H87">
+        <v>9.999</v>
+      </c>
+      <c r="I87" t="str">
+        <v>Z99</v>
+      </c>
+      <c r="J87">
+        <v>0.0003</v>
+      </c>
+      <c r="K87">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="88"/>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K88"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Updates/Input data/Bookings With Publisher Promo (10).xlsx
+++ b/Updates/Input data/Bookings With Publisher Promo (10).xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +421,7 @@
         <v>462144</v>
       </c>
       <c r="B2" t="str">
-        <v>Collect</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C2" s="1">
         <v>45951.12550925926</v>
@@ -453,13 +453,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>470499</v>
+        <v>467626</v>
       </c>
       <c r="B3" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C3" s="1">
-        <v>45938.12550925926</v>
+        <v>45931.12550925926</v>
       </c>
       <c r="D3" t="str">
         <v>Daily</v>
@@ -468,118 +468,118 @@
         <v>Old</v>
       </c>
       <c r="F3">
-        <v>85.48</v>
+        <v>570.5</v>
       </c>
       <c r="G3">
         <v>0.1</v>
       </c>
       <c r="H3">
-        <v>9.498</v>
+        <v>63.38900000000002</v>
       </c>
       <c r="I3" t="str">
-        <v>D49</v>
+        <v>D99</v>
       </c>
       <c r="J3">
         <v>0.0003</v>
       </c>
       <c r="K3">
-        <v>2.56</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>470583</v>
+        <v>467860</v>
       </c>
       <c r="B4" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C4" s="1">
-        <v>45938.12550925926</v>
+        <v>45931.12550925926</v>
       </c>
       <c r="D4" t="str">
-        <v>Monthly</v>
+        <v>Daily</v>
       </c>
       <c r="E4" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F4">
-        <v>1901.9</v>
+        <v>395.05</v>
       </c>
       <c r="G4">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>43.895</v>
       </c>
       <c r="I4" t="str">
-        <v>D12</v>
+        <v>D99</v>
       </c>
       <c r="J4">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="K4">
-        <v>38.04</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>470611</v>
+        <v>468209</v>
       </c>
       <c r="B5" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C5" s="1">
-        <v>45938.12550925926</v>
+        <v>45931.12550925926</v>
       </c>
       <c r="D5" t="str">
-        <v>Weekly</v>
+        <v>Daily</v>
       </c>
       <c r="E5" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F5">
-        <v>554.59</v>
+        <v>268.75</v>
       </c>
       <c r="G5">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H5">
-        <v>46.59439999999999</v>
+        <v>29.861000000000004</v>
       </c>
       <c r="I5" t="str">
-        <v>D33</v>
+        <v>D89</v>
       </c>
       <c r="J5">
-        <v>0.000325</v>
+        <v>0.0003</v>
       </c>
       <c r="K5">
-        <v>18.02</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>470628</v>
+        <v>468279</v>
       </c>
       <c r="B6" t="str">
-        <v>Rental Ended</v>
+        <v>Cancelled by User</v>
       </c>
       <c r="C6" s="1">
-        <v>45941.12550925926</v>
+        <v>45932.12550925926</v>
       </c>
       <c r="D6" t="str">
         <v>Daily</v>
       </c>
       <c r="E6" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F6">
-        <v>170.97</v>
+        <v>467.95</v>
       </c>
       <c r="G6">
         <v>0.1</v>
       </c>
       <c r="H6">
-        <v>18.997</v>
+        <v>51.994</v>
       </c>
       <c r="I6" t="str">
         <v>D20</v>
@@ -588,228 +588,228 @@
         <v>0.0003</v>
       </c>
       <c r="K6">
-        <v>5.13</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>470671</v>
+        <v>468412</v>
       </c>
       <c r="B7" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C7" s="1">
-        <v>45938.12550925926</v>
+        <v>45932.12550925926</v>
       </c>
       <c r="D7" t="str">
-        <v>Monthly</v>
+        <v>Weekly</v>
       </c>
       <c r="E7" t="str">
         <v>New</v>
       </c>
       <c r="F7">
-        <v>1594.1</v>
+        <v>577.7</v>
       </c>
       <c r="G7">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H7">
-        <v>83.8995</v>
+        <v>50.23440000000001</v>
       </c>
       <c r="I7" t="str">
         <v>D95</v>
       </c>
       <c r="J7">
-        <v>0.0002</v>
+        <v>0.000325</v>
       </c>
       <c r="K7">
-        <v>31.88</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>470798</v>
+        <v>468420</v>
       </c>
       <c r="B8" t="str">
-        <v>Cancelled by User</v>
+        <v>Rental Started</v>
       </c>
       <c r="C8" s="1">
-        <v>45938.12550925926</v>
+        <v>45932.12550925926</v>
       </c>
       <c r="D8" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E8" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F8">
-        <v>89.98</v>
+        <v>1610.65</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H8">
-        <v>9.998</v>
+        <v>81.9045</v>
       </c>
       <c r="I8" t="str">
-        <v>D20</v>
+        <v>D95</v>
       </c>
       <c r="J8">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K8">
-        <v>2.7</v>
+        <v>32.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>470832</v>
+        <v>468646</v>
       </c>
       <c r="B9" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C9" s="1">
-        <v>45939.12550925926</v>
+        <v>45933.12550925926</v>
       </c>
       <c r="D9" t="str">
         <v>Daily</v>
       </c>
       <c r="E9" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F9">
-        <v>142.17</v>
+        <v>294.31</v>
       </c>
       <c r="G9">
         <v>0.1</v>
       </c>
       <c r="H9">
-        <v>15.797</v>
+        <v>31.594000000000005</v>
       </c>
       <c r="I9" t="str">
-        <v>D20</v>
+        <v>D50</v>
       </c>
       <c r="J9">
         <v>0.0003</v>
       </c>
       <c r="K9">
-        <v>4.27</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>470837</v>
+        <v>469463</v>
       </c>
       <c r="B10" t="str">
-        <v>Rental Ended</v>
+        <v>Cancelled by User</v>
       </c>
       <c r="C10" s="1">
-        <v>45939.12550925926</v>
+        <v>45934.12550925926</v>
       </c>
       <c r="D10" t="str">
         <v>Daily</v>
       </c>
       <c r="E10" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F10">
-        <v>664.15</v>
+        <v>288.95</v>
       </c>
       <c r="G10">
         <v>0.1</v>
       </c>
       <c r="H10">
-        <v>73.79400000000001</v>
+        <v>32.105</v>
       </c>
       <c r="I10" t="str">
-        <v>Z21</v>
+        <v>D99</v>
       </c>
       <c r="J10">
         <v>0.0003</v>
       </c>
       <c r="K10">
-        <v>19.92</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>470853</v>
+        <v>469736</v>
       </c>
       <c r="B11" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C11" s="1">
-        <v>45939.12550925926</v>
+        <v>45936.12550925926</v>
       </c>
       <c r="D11" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E11" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F11">
-        <v>419.42</v>
+        <v>2490.87</v>
       </c>
       <c r="G11">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H11">
-        <v>46.602</v>
+        <v>100</v>
       </c>
       <c r="I11" t="str">
-        <v>D12</v>
+        <v>D20</v>
       </c>
       <c r="J11">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K11">
-        <v>12.58</v>
+        <v>49.82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>470886</v>
+        <v>470018</v>
       </c>
       <c r="B12" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C12" s="1">
-        <v>45939.12550925926</v>
+        <v>45936.12550925926</v>
       </c>
       <c r="D12" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E12" t="str">
         <v>Old</v>
       </c>
       <c r="F12">
-        <v>89.98</v>
+        <v>1717.58</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H12">
-        <v>9.998</v>
+        <v>90.399</v>
       </c>
       <c r="I12" t="str">
-        <v>D50</v>
+        <v>D20</v>
       </c>
       <c r="J12">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K12">
-        <v>2.7</v>
+        <v>34.35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>471037</v>
+        <v>470058</v>
       </c>
       <c r="B13" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C13" s="1">
-        <v>45940.12550925926</v>
+        <v>45936.12550925926</v>
       </c>
       <c r="D13" t="str">
         <v>Daily</v>
@@ -818,138 +818,138 @@
         <v>Old</v>
       </c>
       <c r="F13">
-        <v>133.17</v>
+        <v>89.98</v>
       </c>
       <c r="G13">
         <v>0.1</v>
       </c>
       <c r="H13">
-        <v>14.796699999999998</v>
+        <v>9.998</v>
       </c>
       <c r="I13" t="str">
-        <v>D20</v>
+        <v>D95</v>
       </c>
       <c r="J13">
         <v>0.0003</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>471128</v>
+        <v>470071</v>
       </c>
       <c r="B14" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C14" s="1">
-        <v>45939.12550925926</v>
+        <v>45937.12550925926</v>
       </c>
       <c r="D14" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E14" t="str">
         <v>Old</v>
       </c>
       <c r="F14">
-        <v>152.98</v>
+        <v>2238.83</v>
       </c>
       <c r="G14">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H14">
-        <v>16.998</v>
+        <v>100</v>
       </c>
       <c r="I14" t="str">
-        <v>D12</v>
+        <v>D95</v>
       </c>
       <c r="J14">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K14">
-        <v>4.59</v>
+        <v>44.78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>471173</v>
+        <v>470188</v>
       </c>
       <c r="B15" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C15" s="1">
-        <v>45942.12550925926</v>
+        <v>45937.12550925926</v>
       </c>
       <c r="D15" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E15" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F15">
-        <v>597.55</v>
+        <v>1419.21</v>
       </c>
       <c r="G15">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H15">
-        <v>66.392</v>
+        <v>74.6945</v>
       </c>
       <c r="I15" t="str">
-        <v>D12</v>
+        <v>D99</v>
       </c>
       <c r="J15">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K15">
-        <v>17.93</v>
+        <v>28.38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>471191</v>
+        <v>470286</v>
       </c>
       <c r="B16" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C16" s="1">
-        <v>45943.12550925926</v>
+        <v>45937.12550925926</v>
       </c>
       <c r="D16" t="str">
-        <v>Monthly</v>
+        <v>Daily</v>
       </c>
       <c r="E16" t="str">
         <v>Old</v>
       </c>
       <c r="F16">
-        <v>3543.73</v>
+        <v>89.98</v>
       </c>
       <c r="G16">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>9.998</v>
       </c>
       <c r="I16" t="str">
         <v>D20</v>
       </c>
       <c r="J16">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="K16">
-        <v>70.87</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>471198</v>
+        <v>470499</v>
       </c>
       <c r="B17" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C17" s="1">
-        <v>45940.12550925926</v>
+        <v>45938.12550925926</v>
       </c>
       <c r="D17" t="str">
         <v>Daily</v>
@@ -958,103 +958,103 @@
         <v>Old</v>
       </c>
       <c r="F17">
-        <v>136.81</v>
+        <v>85.48</v>
       </c>
       <c r="G17">
         <v>0.1</v>
       </c>
       <c r="H17">
-        <v>15.201</v>
+        <v>9.498</v>
       </c>
       <c r="I17" t="str">
-        <v>D10</v>
+        <v>D49</v>
       </c>
       <c r="J17">
         <v>0.0003</v>
       </c>
       <c r="K17">
-        <v>4.1</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>471240</v>
+        <v>470583</v>
       </c>
       <c r="B18" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C18" s="1">
-        <v>45940.12550925926</v>
+        <v>45938.12550925926</v>
       </c>
       <c r="D18" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E18" t="str">
         <v>Old</v>
       </c>
       <c r="F18">
-        <v>299.06</v>
+        <v>1901.9</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H18">
-        <v>32.105</v>
+        <v>100</v>
       </c>
       <c r="I18" t="str">
-        <v>D95</v>
+        <v>D12</v>
       </c>
       <c r="J18">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K18">
-        <v>8.97</v>
+        <v>38.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>471369</v>
+        <v>470611</v>
       </c>
       <c r="B19" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C19" s="1">
-        <v>45940.12550925926</v>
+        <v>45938.12550925926</v>
       </c>
       <c r="D19" t="str">
-        <v>Monthly</v>
+        <v>Weekly</v>
       </c>
       <c r="E19" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F19">
-        <v>1603.49</v>
+        <v>554.59</v>
       </c>
       <c r="G19">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H19">
-        <v>81.39450000000001</v>
+        <v>46.59439999999999</v>
       </c>
       <c r="I19" t="str">
-        <v>D95</v>
+        <v>D33</v>
       </c>
       <c r="J19">
-        <v>0.0002</v>
+        <v>0.000325</v>
       </c>
       <c r="K19">
-        <v>32.07</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>471399</v>
+        <v>470628</v>
       </c>
       <c r="B20" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C20" s="1">
-        <v>45940.12550925926</v>
+        <v>45941.12550925926</v>
       </c>
       <c r="D20" t="str">
         <v>Daily</v>
@@ -1063,68 +1063,68 @@
         <v>Old</v>
       </c>
       <c r="F20">
-        <v>149.38</v>
+        <v>170.97</v>
       </c>
       <c r="G20">
         <v>0.1</v>
       </c>
       <c r="H20">
-        <v>16.598000000000003</v>
+        <v>18.997</v>
       </c>
       <c r="I20" t="str">
-        <v>D33</v>
+        <v>D20</v>
       </c>
       <c r="J20">
         <v>0.0003</v>
       </c>
       <c r="K20">
-        <v>4.48</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>471412</v>
+        <v>470671</v>
       </c>
       <c r="B21" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C21" s="1">
-        <v>45940.12550925926</v>
+        <v>45938.12550925926</v>
       </c>
       <c r="D21" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E21" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F21">
-        <v>330.64</v>
+        <v>1594.1</v>
       </c>
       <c r="G21">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H21">
-        <v>35.494</v>
+        <v>83.8995</v>
       </c>
       <c r="I21" t="str">
         <v>D95</v>
       </c>
       <c r="J21">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K21">
-        <v>9.92</v>
+        <v>31.88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>471461</v>
+        <v>470798</v>
       </c>
       <c r="B22" t="str">
-        <v>Rental Ended</v>
+        <v>Cancelled by User</v>
       </c>
       <c r="C22" s="1">
-        <v>45941.12550925926</v>
+        <v>45938.12550925926</v>
       </c>
       <c r="D22" t="str">
         <v>Daily</v>
@@ -1133,33 +1133,33 @@
         <v>Old</v>
       </c>
       <c r="F22">
-        <v>133.17</v>
+        <v>89.98</v>
       </c>
       <c r="G22">
         <v>0.1</v>
       </c>
       <c r="H22">
-        <v>14.796699999999998</v>
+        <v>9.998</v>
       </c>
       <c r="I22" t="str">
-        <v>D95</v>
+        <v>D20</v>
       </c>
       <c r="J22">
         <v>0.0003</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>471555</v>
+        <v>470832</v>
       </c>
       <c r="B23" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C23" s="1">
-        <v>45941.12550925926</v>
+        <v>45939.12550925926</v>
       </c>
       <c r="D23" t="str">
         <v>Daily</v>
@@ -1168,103 +1168,103 @@
         <v>Old</v>
       </c>
       <c r="F23">
-        <v>270.86</v>
+        <v>142.17</v>
       </c>
       <c r="G23">
         <v>0.1</v>
       </c>
       <c r="H23">
-        <v>30.096000000000004</v>
+        <v>15.797</v>
       </c>
       <c r="I23" t="str">
-        <v>D95</v>
+        <v>D20</v>
       </c>
       <c r="J23">
         <v>0.0003</v>
       </c>
       <c r="K23">
-        <v>8.13</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>471583</v>
+        <v>470837</v>
       </c>
       <c r="B24" t="str">
-        <v>Cancelled by User</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C24" s="1">
-        <v>45941.12550925926</v>
+        <v>45939.12550925926</v>
       </c>
       <c r="D24" t="str">
         <v>Daily</v>
       </c>
       <c r="E24" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F24">
-        <v>195.26</v>
+        <v>664.15</v>
       </c>
       <c r="G24">
         <v>0.1</v>
       </c>
       <c r="H24">
-        <v>21.697</v>
+        <v>73.79400000000001</v>
       </c>
       <c r="I24" t="str">
-        <v>D95</v>
+        <v>Z21</v>
       </c>
       <c r="J24">
         <v>0.0003</v>
       </c>
       <c r="K24">
-        <v>5.86</v>
+        <v>19.92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>471854</v>
+        <v>470853</v>
       </c>
       <c r="B25" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C25" s="1">
-        <v>45942.12550925926</v>
+        <v>45939.12550925926</v>
       </c>
       <c r="D25" t="str">
-        <v>Monthly</v>
+        <v>Daily</v>
       </c>
       <c r="E25" t="str">
         <v>Old</v>
       </c>
       <c r="F25">
-        <v>1630.87</v>
+        <v>419.42</v>
       </c>
       <c r="G25">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H25">
-        <v>85.8345</v>
+        <v>46.602</v>
       </c>
       <c r="I25" t="str">
-        <v>D95</v>
+        <v>D12</v>
       </c>
       <c r="J25">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="K25">
-        <v>32.62</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>471974</v>
+        <v>470886</v>
       </c>
       <c r="B26" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C26" s="1">
-        <v>45943.12550925926</v>
+        <v>45939.12550925926</v>
       </c>
       <c r="D26" t="str">
         <v>Daily</v>
@@ -1273,33 +1273,33 @@
         <v>Old</v>
       </c>
       <c r="F26">
-        <v>481.82</v>
+        <v>89.98</v>
       </c>
       <c r="G26">
         <v>0.1</v>
       </c>
       <c r="H26">
-        <v>53.535</v>
+        <v>9.998</v>
       </c>
       <c r="I26" t="str">
-        <v>D95</v>
+        <v>D50</v>
       </c>
       <c r="J26">
         <v>0.0003</v>
       </c>
       <c r="K26">
-        <v>14.45</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>472002</v>
+        <v>471037</v>
       </c>
       <c r="B27" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C27" s="1">
-        <v>45943.12550925926</v>
+        <v>45940.12550925926</v>
       </c>
       <c r="D27" t="str">
         <v>Daily</v>
@@ -1308,33 +1308,33 @@
         <v>Old</v>
       </c>
       <c r="F27">
-        <v>89.98</v>
+        <v>133.17</v>
       </c>
       <c r="G27">
         <v>0.1</v>
       </c>
       <c r="H27">
-        <v>9.998</v>
+        <v>14.796699999999998</v>
       </c>
       <c r="I27" t="str">
-        <v>D95</v>
+        <v>D20</v>
       </c>
       <c r="J27">
         <v>0.0003</v>
       </c>
       <c r="K27">
-        <v>2.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>472036</v>
+        <v>471128</v>
       </c>
       <c r="B28" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C28" s="1">
-        <v>45942.12550925926</v>
+        <v>45939.12550925926</v>
       </c>
       <c r="D28" t="str">
         <v>Daily</v>
@@ -1343,13 +1343,13 @@
         <v>Old</v>
       </c>
       <c r="F28">
-        <v>319.46</v>
+        <v>152.98</v>
       </c>
       <c r="G28">
         <v>0.1</v>
       </c>
       <c r="H28">
-        <v>35.49400000000001</v>
+        <v>16.998</v>
       </c>
       <c r="I28" t="str">
         <v>D12</v>
@@ -1358,12 +1358,12 @@
         <v>0.0003</v>
       </c>
       <c r="K28">
-        <v>9.58</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>472079</v>
+        <v>471173</v>
       </c>
       <c r="B29" t="str">
         <v>Rental Ended</v>
@@ -1372,109 +1372,109 @@
         <v>45942.12550925926</v>
       </c>
       <c r="D29" t="str">
-        <v>Weekly</v>
+        <v>Daily</v>
       </c>
       <c r="E29" t="str">
         <v>Old</v>
       </c>
       <c r="F29">
-        <v>1266.27</v>
+        <v>597.55</v>
       </c>
       <c r="G29">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>66.392</v>
       </c>
       <c r="I29" t="str">
-        <v>D95</v>
+        <v>D12</v>
       </c>
       <c r="J29">
-        <v>0.000325</v>
+        <v>0.0003</v>
       </c>
       <c r="K29">
-        <v>41.15</v>
+        <v>17.93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>472103</v>
+        <v>471191</v>
       </c>
       <c r="B30" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C30" s="1">
-        <v>45942.12550925926</v>
+        <v>45943.12550925926</v>
       </c>
       <c r="D30" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E30" t="str">
         <v>Old</v>
       </c>
       <c r="F30">
-        <v>117.93</v>
+        <v>3543.73</v>
       </c>
       <c r="G30">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H30">
-        <v>13.102</v>
+        <v>100</v>
       </c>
       <c r="I30" t="str">
-        <v>D13</v>
+        <v>D20</v>
       </c>
       <c r="J30">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K30">
-        <v>3.54</v>
+        <v>70.87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>472224</v>
+        <v>471198</v>
       </c>
       <c r="B31" t="str">
-        <v>Cancelled by User</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C31" s="1">
-        <v>45942.12550925926</v>
+        <v>45940.12550925926</v>
       </c>
       <c r="D31" t="str">
         <v>Daily</v>
       </c>
       <c r="E31" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F31">
-        <v>340.18</v>
+        <v>136.81</v>
       </c>
       <c r="G31">
         <v>0.1</v>
       </c>
       <c r="H31">
-        <v>37.798</v>
+        <v>15.201</v>
       </c>
       <c r="I31" t="str">
-        <v>Z10</v>
+        <v>D10</v>
       </c>
       <c r="J31">
         <v>0.0003</v>
       </c>
       <c r="K31">
-        <v>10.21</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>472251</v>
+        <v>471240</v>
       </c>
       <c r="B32" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C32" s="1">
-        <v>45943.12550925926</v>
+        <v>45940.12550925926</v>
       </c>
       <c r="D32" t="str">
         <v>Daily</v>
@@ -1483,68 +1483,68 @@
         <v>Old</v>
       </c>
       <c r="F32">
-        <v>565.15</v>
+        <v>299.06</v>
       </c>
       <c r="G32">
         <v>0.1</v>
       </c>
       <c r="H32">
-        <v>62.795</v>
+        <v>32.105</v>
       </c>
       <c r="I32" t="str">
-        <v>Z99</v>
+        <v>D95</v>
       </c>
       <c r="J32">
         <v>0.0003</v>
       </c>
       <c r="K32">
-        <v>16.95</v>
+        <v>8.97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>472271</v>
+        <v>471369</v>
       </c>
       <c r="B33" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C33" s="1">
-        <v>45943.12550925926</v>
+        <v>45940.12550925926</v>
       </c>
       <c r="D33" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E33" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F33">
-        <v>308.64</v>
+        <v>1603.49</v>
       </c>
       <c r="G33">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H33">
-        <v>34.293</v>
+        <v>81.39450000000001</v>
       </c>
       <c r="I33" t="str">
         <v>D95</v>
       </c>
       <c r="J33">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K33">
-        <v>9.26</v>
+        <v>32.07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>472562</v>
+        <v>471399</v>
       </c>
       <c r="B34" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C34" s="1">
-        <v>45945.12550925926</v>
+        <v>45940.12550925926</v>
       </c>
       <c r="D34" t="str">
         <v>Daily</v>
@@ -1553,48 +1553,48 @@
         <v>Old</v>
       </c>
       <c r="F34">
-        <v>264.63</v>
+        <v>149.38</v>
       </c>
       <c r="G34">
         <v>0.1</v>
       </c>
       <c r="H34">
-        <v>28.301</v>
+        <v>16.598000000000003</v>
       </c>
       <c r="I34" t="str">
-        <v>D95</v>
+        <v>D33</v>
       </c>
       <c r="J34">
         <v>0.0003</v>
       </c>
       <c r="K34">
-        <v>7.94</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>472785</v>
+        <v>471412</v>
       </c>
       <c r="B35" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C35" s="1">
-        <v>45944.12550925926</v>
+        <v>45940.12550925926</v>
       </c>
       <c r="D35" t="str">
         <v>Daily</v>
       </c>
       <c r="E35" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F35">
-        <v>570.5</v>
+        <v>330.64</v>
       </c>
       <c r="G35">
         <v>0.1</v>
       </c>
       <c r="H35">
-        <v>63.38900000000002</v>
+        <v>35.494</v>
       </c>
       <c r="I35" t="str">
         <v>D95</v>
@@ -1603,18 +1603,18 @@
         <v>0.0003</v>
       </c>
       <c r="K35">
-        <v>17.11</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>472915</v>
+        <v>471461</v>
       </c>
       <c r="B36" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C36" s="1">
-        <v>45944.12550925926</v>
+        <v>45941.12550925926</v>
       </c>
       <c r="D36" t="str">
         <v>Daily</v>
@@ -1623,13 +1623,13 @@
         <v>Old</v>
       </c>
       <c r="F36">
-        <v>89.98</v>
+        <v>133.17</v>
       </c>
       <c r="G36">
         <v>0.1</v>
       </c>
       <c r="H36">
-        <v>9.998</v>
+        <v>14.796699999999998</v>
       </c>
       <c r="I36" t="str">
         <v>D95</v>
@@ -1638,18 +1638,18 @@
         <v>0.0003</v>
       </c>
       <c r="K36">
-        <v>2.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>472939</v>
+        <v>471555</v>
       </c>
       <c r="B37" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C37" s="1">
-        <v>45944.12550925926</v>
+        <v>45941.12550925926</v>
       </c>
       <c r="D37" t="str">
         <v>Daily</v>
@@ -1658,13 +1658,13 @@
         <v>Old</v>
       </c>
       <c r="F37">
-        <v>89.98</v>
+        <v>270.86</v>
       </c>
       <c r="G37">
         <v>0.1</v>
       </c>
       <c r="H37">
-        <v>9.998</v>
+        <v>30.096000000000004</v>
       </c>
       <c r="I37" t="str">
         <v>D95</v>
@@ -1673,18 +1673,18 @@
         <v>0.0003</v>
       </c>
       <c r="K37">
-        <v>2.7</v>
+        <v>8.13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>473044</v>
+        <v>471583</v>
       </c>
       <c r="B38" t="str">
-        <v>Rental Ended</v>
+        <v>Cancelled by User</v>
       </c>
       <c r="C38" s="1">
-        <v>45945.12550925926</v>
+        <v>45941.12550925926</v>
       </c>
       <c r="D38" t="str">
         <v>Daily</v>
@@ -1693,118 +1693,118 @@
         <v>Old</v>
       </c>
       <c r="F38">
-        <v>152.08</v>
+        <v>195.26</v>
       </c>
       <c r="G38">
         <v>0.1</v>
       </c>
       <c r="H38">
-        <v>16.898</v>
+        <v>21.697</v>
       </c>
       <c r="I38" t="str">
-        <v>D20</v>
+        <v>D95</v>
       </c>
       <c r="J38">
         <v>0.0003</v>
       </c>
       <c r="K38">
-        <v>4.56</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>473047</v>
+        <v>471854</v>
       </c>
       <c r="B39" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C39" s="1">
-        <v>45945.12550925926</v>
+        <v>45942.12550925926</v>
       </c>
       <c r="D39" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E39" t="str">
         <v>Old</v>
       </c>
       <c r="F39">
-        <v>89.98</v>
+        <v>1630.87</v>
       </c>
       <c r="G39">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H39">
-        <v>9.998</v>
+        <v>85.8345</v>
       </c>
       <c r="I39" t="str">
         <v>D95</v>
       </c>
       <c r="J39">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K39">
-        <v>2.7</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>473362</v>
+        <v>471974</v>
       </c>
       <c r="B40" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C40" s="1">
-        <v>45946.12550925926</v>
+        <v>45943.12550925926</v>
       </c>
       <c r="D40" t="str">
-        <v>Monthly</v>
+        <v>Daily</v>
       </c>
       <c r="E40" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F40">
-        <v>1898.96</v>
+        <v>481.82</v>
       </c>
       <c r="G40">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H40">
-        <v>99.945</v>
+        <v>53.535</v>
       </c>
       <c r="I40" t="str">
-        <v>Z95</v>
+        <v>D95</v>
       </c>
       <c r="J40">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="K40">
-        <v>37.98</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>473377</v>
+        <v>472002</v>
       </c>
       <c r="B41" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C41" s="1">
-        <v>45945.12550925926</v>
+        <v>45943.12550925926</v>
       </c>
       <c r="D41" t="str">
         <v>Daily</v>
       </c>
       <c r="E41" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F41">
-        <v>116.1</v>
+        <v>89.98</v>
       </c>
       <c r="G41">
         <v>0.1</v>
       </c>
       <c r="H41">
-        <v>12.899000000000001</v>
+        <v>9.998</v>
       </c>
       <c r="I41" t="str">
         <v>D95</v>
@@ -1813,18 +1813,18 @@
         <v>0.0003</v>
       </c>
       <c r="K41">
-        <v>3.48</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>473396</v>
+        <v>472036</v>
       </c>
       <c r="B42" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C42" s="1">
-        <v>45948.12550925926</v>
+        <v>45942.12550925926</v>
       </c>
       <c r="D42" t="str">
         <v>Daily</v>
@@ -1833,13 +1833,13 @@
         <v>Old</v>
       </c>
       <c r="F42">
-        <v>170.97</v>
+        <v>319.46</v>
       </c>
       <c r="G42">
         <v>0.1</v>
       </c>
       <c r="H42">
-        <v>18.997</v>
+        <v>35.49400000000001</v>
       </c>
       <c r="I42" t="str">
         <v>D12</v>
@@ -1848,33 +1848,33 @@
         <v>0.0003</v>
       </c>
       <c r="K42">
-        <v>5.13</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>473412</v>
+        <v>472079</v>
       </c>
       <c r="B43" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C43" s="1">
-        <v>45946.12550925926</v>
+        <v>45942.12550925926</v>
       </c>
       <c r="D43" t="str">
         <v>Weekly</v>
       </c>
       <c r="E43" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F43">
-        <v>341.15</v>
+        <v>1266.27</v>
       </c>
       <c r="G43">
         <v>0.08</v>
       </c>
       <c r="H43">
-        <v>37.904999999999994</v>
+        <v>100</v>
       </c>
       <c r="I43" t="str">
         <v>D95</v>
@@ -1883,18 +1883,18 @@
         <v>0.000325</v>
       </c>
       <c r="K43">
-        <v>11.09</v>
+        <v>41.15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>473461</v>
+        <v>472103</v>
       </c>
       <c r="B44" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C44" s="1">
-        <v>45946.12550925926</v>
+        <v>45942.12550925926</v>
       </c>
       <c r="D44" t="str">
         <v>Daily</v>
@@ -1903,68 +1903,68 @@
         <v>Old</v>
       </c>
       <c r="F44">
-        <v>169.2</v>
+        <v>117.93</v>
       </c>
       <c r="G44">
         <v>0.1</v>
       </c>
       <c r="H44">
-        <v>18.8</v>
+        <v>13.102</v>
       </c>
       <c r="I44" t="str">
-        <v>D7</v>
+        <v>D13</v>
       </c>
       <c r="J44">
         <v>0.0003</v>
       </c>
       <c r="K44">
-        <v>5.08</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>473746</v>
+        <v>472224</v>
       </c>
       <c r="B45" t="str">
-        <v>Rental Ended</v>
+        <v>Cancelled by User</v>
       </c>
       <c r="C45" s="1">
-        <v>45946.12550925926</v>
+        <v>45942.12550925926</v>
       </c>
       <c r="D45" t="str">
-        <v>Weekly</v>
+        <v>Daily</v>
       </c>
       <c r="E45" t="str">
         <v>New</v>
       </c>
       <c r="F45">
-        <v>735.02</v>
+        <v>340.18</v>
       </c>
       <c r="G45">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H45">
-        <v>63.91383999999999</v>
+        <v>37.798</v>
       </c>
       <c r="I45" t="str">
-        <v>Z25</v>
+        <v>Z10</v>
       </c>
       <c r="J45">
-        <v>0.000325</v>
+        <v>0.0003</v>
       </c>
       <c r="K45">
-        <v>23.89</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>473774</v>
+        <v>472251</v>
       </c>
       <c r="B46" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C46" s="1">
-        <v>45946.12550925926</v>
+        <v>45943.12550925926</v>
       </c>
       <c r="D46" t="str">
         <v>Daily</v>
@@ -1973,48 +1973,48 @@
         <v>Old</v>
       </c>
       <c r="F46">
-        <v>98.98</v>
+        <v>565.15</v>
       </c>
       <c r="G46">
         <v>0.1</v>
       </c>
       <c r="H46">
-        <v>10.998</v>
+        <v>62.795</v>
       </c>
       <c r="I46" t="str">
-        <v>D95</v>
+        <v>Z99</v>
       </c>
       <c r="J46">
         <v>0.0003</v>
       </c>
       <c r="K46">
-        <v>2.97</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>473917</v>
+        <v>472271</v>
       </c>
       <c r="B47" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C47" s="1">
-        <v>45947.12550925926</v>
+        <v>45943.12550925926</v>
       </c>
       <c r="D47" t="str">
         <v>Daily</v>
       </c>
       <c r="E47" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F47">
-        <v>182.67</v>
+        <v>308.64</v>
       </c>
       <c r="G47">
         <v>0.1</v>
       </c>
       <c r="H47">
-        <v>20.297900000000002</v>
+        <v>34.293</v>
       </c>
       <c r="I47" t="str">
         <v>D95</v>
@@ -2023,18 +2023,18 @@
         <v>0.0003</v>
       </c>
       <c r="K47">
-        <v>5.48</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>474048</v>
+        <v>472562</v>
       </c>
       <c r="B48" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C48" s="1">
-        <v>45947.12550925926</v>
+        <v>45945.12550925926</v>
       </c>
       <c r="D48" t="str">
         <v>Daily</v>
@@ -2043,13 +2043,13 @@
         <v>Old</v>
       </c>
       <c r="F48">
-        <v>98.99</v>
+        <v>264.63</v>
       </c>
       <c r="G48">
         <v>0.1</v>
       </c>
       <c r="H48">
-        <v>11</v>
+        <v>28.301</v>
       </c>
       <c r="I48" t="str">
         <v>D95</v>
@@ -2058,18 +2058,18 @@
         <v>0.0003</v>
       </c>
       <c r="K48">
-        <v>2.97</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>474114</v>
+        <v>472785</v>
       </c>
       <c r="B49" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C49" s="1">
-        <v>45948.12550925926</v>
+        <v>45944.12550925926</v>
       </c>
       <c r="D49" t="str">
         <v>Daily</v>
@@ -2078,48 +2078,48 @@
         <v>New</v>
       </c>
       <c r="F49">
-        <v>142.17</v>
+        <v>570.5</v>
       </c>
       <c r="G49">
         <v>0.1</v>
       </c>
       <c r="H49">
-        <v>15.797</v>
+        <v>63.38900000000002</v>
       </c>
       <c r="I49" t="str">
-        <v>D20</v>
+        <v>D95</v>
       </c>
       <c r="J49">
         <v>0.0003</v>
       </c>
       <c r="K49">
-        <v>4.27</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>474123</v>
+        <v>472915</v>
       </c>
       <c r="B50" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C50" s="1">
-        <v>45947.12550925926</v>
+        <v>45944.12550925926</v>
       </c>
       <c r="D50" t="str">
         <v>Daily</v>
       </c>
       <c r="E50" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F50">
-        <v>314.08</v>
+        <v>89.98</v>
       </c>
       <c r="G50">
         <v>0.1</v>
       </c>
       <c r="H50">
-        <v>34.897000000000006</v>
+        <v>9.998</v>
       </c>
       <c r="I50" t="str">
         <v>D95</v>
@@ -2128,18 +2128,18 @@
         <v>0.0003</v>
       </c>
       <c r="K50">
-        <v>9.42</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>474138</v>
+        <v>472939</v>
       </c>
       <c r="B51" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C51" s="1">
-        <v>45948.12550925926</v>
+        <v>45944.12550925926</v>
       </c>
       <c r="D51" t="str">
         <v>Daily</v>
@@ -2148,13 +2148,13 @@
         <v>Old</v>
       </c>
       <c r="F51">
-        <v>224.97</v>
+        <v>89.98</v>
       </c>
       <c r="G51">
         <v>0.1</v>
       </c>
       <c r="H51">
-        <v>24.997</v>
+        <v>9.998</v>
       </c>
       <c r="I51" t="str">
         <v>D95</v>
@@ -2163,53 +2163,53 @@
         <v>0.0003</v>
       </c>
       <c r="K51">
-        <v>6.75</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>474156</v>
+        <v>473044</v>
       </c>
       <c r="B52" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C52" s="1">
-        <v>45948.12550925926</v>
+        <v>45945.12550925926</v>
       </c>
       <c r="D52" t="str">
-        <v>Monthly</v>
+        <v>Daily</v>
       </c>
       <c r="E52" t="str">
         <v>Old</v>
       </c>
       <c r="F52">
-        <v>1716.37</v>
+        <v>152.08</v>
       </c>
       <c r="G52">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H52">
-        <v>90.3345</v>
+        <v>16.898</v>
       </c>
       <c r="I52" t="str">
-        <v>D12</v>
+        <v>D20</v>
       </c>
       <c r="J52">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="K52">
-        <v>34.33</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>474226</v>
+        <v>473047</v>
       </c>
       <c r="B53" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C53" s="1">
-        <v>45948.12550925926</v>
+        <v>45945.12550925926</v>
       </c>
       <c r="D53" t="str">
         <v>Daily</v>
@@ -2218,83 +2218,83 @@
         <v>Old</v>
       </c>
       <c r="F53">
-        <v>123.29</v>
+        <v>89.98</v>
       </c>
       <c r="G53">
         <v>0.1</v>
       </c>
       <c r="H53">
-        <v>13.698</v>
+        <v>9.998</v>
       </c>
       <c r="I53" t="str">
-        <v>D99</v>
+        <v>D95</v>
       </c>
       <c r="J53">
         <v>0.0003</v>
       </c>
       <c r="K53">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>474501</v>
+        <v>473362</v>
       </c>
       <c r="B54" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C54" s="1">
-        <v>45948.12550925926</v>
+        <v>45946.12550925926</v>
       </c>
       <c r="D54" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E54" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F54">
-        <v>125.98</v>
+        <v>1898.96</v>
       </c>
       <c r="G54">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H54">
-        <v>13.998000000000001</v>
+        <v>99.945</v>
       </c>
       <c r="I54" t="str">
-        <v>D95</v>
+        <v>Z95</v>
       </c>
       <c r="J54">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K54">
-        <v>3.78</v>
+        <v>37.98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>474553</v>
+        <v>473377</v>
       </c>
       <c r="B55" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C55" s="1">
-        <v>45949.12550925926</v>
+        <v>45945.12550925926</v>
       </c>
       <c r="D55" t="str">
         <v>Daily</v>
       </c>
       <c r="E55" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F55">
-        <v>89.98</v>
+        <v>116.1</v>
       </c>
       <c r="G55">
         <v>0.1</v>
       </c>
       <c r="H55">
-        <v>9.998</v>
+        <v>12.899000000000001</v>
       </c>
       <c r="I55" t="str">
         <v>D95</v>
@@ -2303,88 +2303,88 @@
         <v>0.0003</v>
       </c>
       <c r="K55">
-        <v>2.7</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>474709</v>
+        <v>473396</v>
       </c>
       <c r="B56" t="str">
-        <v>Car Assigned</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C56" s="1">
-        <v>45949.12550925926</v>
+        <v>45948.12550925926</v>
       </c>
       <c r="D56" t="str">
-        <v>Monthly</v>
+        <v>Daily</v>
       </c>
       <c r="E56" t="str">
         <v>Old</v>
       </c>
       <c r="F56">
-        <v>2782.78</v>
+        <v>170.97</v>
       </c>
       <c r="G56">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H56">
-        <v>100</v>
+        <v>18.997</v>
       </c>
       <c r="I56" t="str">
-        <v>D20</v>
+        <v>D12</v>
       </c>
       <c r="J56">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="K56">
-        <v>55.66</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>474720</v>
+        <v>473412</v>
       </c>
       <c r="B57" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C57" s="1">
-        <v>45949.12550925926</v>
+        <v>45946.12550925926</v>
       </c>
       <c r="D57" t="str">
-        <v>Daily</v>
+        <v>Weekly</v>
       </c>
       <c r="E57" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F57">
-        <v>105.28</v>
+        <v>341.15</v>
       </c>
       <c r="G57">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H57">
-        <v>11.7</v>
+        <v>37.904999999999994</v>
       </c>
       <c r="I57" t="str">
-        <v>D50</v>
+        <v>D95</v>
       </c>
       <c r="J57">
-        <v>0.0003</v>
+        <v>0.000325</v>
       </c>
       <c r="K57">
-        <v>3.16</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>474824</v>
+        <v>473461</v>
       </c>
       <c r="B58" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C58" s="1">
-        <v>45949.12550925926</v>
+        <v>45946.12550925926</v>
       </c>
       <c r="D58" t="str">
         <v>Daily</v>
@@ -2393,103 +2393,103 @@
         <v>Old</v>
       </c>
       <c r="F58">
-        <v>89.98</v>
+        <v>169.2</v>
       </c>
       <c r="G58">
         <v>0.1</v>
       </c>
       <c r="H58">
-        <v>9.998</v>
+        <v>18.8</v>
       </c>
       <c r="I58" t="str">
-        <v>D50</v>
+        <v>D7</v>
       </c>
       <c r="J58">
         <v>0.0003</v>
       </c>
       <c r="K58">
-        <v>2.7</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>474838</v>
+        <v>473746</v>
       </c>
       <c r="B59" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C59" s="1">
-        <v>45949.12550925926</v>
+        <v>45946.12550925926</v>
       </c>
       <c r="D59" t="str">
-        <v>Daily</v>
+        <v>Weekly</v>
       </c>
       <c r="E59" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F59">
-        <v>161.09</v>
+        <v>735.02</v>
       </c>
       <c r="G59">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H59">
-        <v>17.898</v>
+        <v>63.91383999999999</v>
       </c>
       <c r="I59" t="str">
-        <v>D50</v>
+        <v>Z25</v>
       </c>
       <c r="J59">
-        <v>0.0003</v>
+        <v>0.000325</v>
       </c>
       <c r="K59">
-        <v>4.83</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>474855</v>
+        <v>473774</v>
       </c>
       <c r="B60" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C60" s="1">
-        <v>45950.12550925926</v>
+        <v>45946.12550925926</v>
       </c>
       <c r="D60" t="str">
-        <v>Weekly</v>
+        <v>Daily</v>
       </c>
       <c r="E60" t="str">
         <v>Old</v>
       </c>
       <c r="F60">
-        <v>2006.28</v>
+        <v>98.98</v>
       </c>
       <c r="G60">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H60">
-        <v>100</v>
+        <v>10.998</v>
       </c>
       <c r="I60" t="str">
         <v>D95</v>
       </c>
       <c r="J60">
-        <v>0.000325</v>
+        <v>0.0003</v>
       </c>
       <c r="K60">
-        <v>65.2</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>474888</v>
+        <v>473917</v>
       </c>
       <c r="B61" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C61" s="1">
-        <v>45950.12550925926</v>
+        <v>45947.12550925926</v>
       </c>
       <c r="D61" t="str">
         <v>Daily</v>
@@ -2498,13 +2498,13 @@
         <v>Old</v>
       </c>
       <c r="F61">
-        <v>208.75</v>
+        <v>182.67</v>
       </c>
       <c r="G61">
         <v>0.1</v>
       </c>
       <c r="H61">
-        <v>23.195</v>
+        <v>20.297900000000002</v>
       </c>
       <c r="I61" t="str">
         <v>D95</v>
@@ -2513,53 +2513,53 @@
         <v>0.0003</v>
       </c>
       <c r="K61">
-        <v>6.26</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>474899</v>
+        <v>474048</v>
       </c>
       <c r="B62" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C62" s="1">
-        <v>45950.12550925926</v>
+        <v>45947.12550925926</v>
       </c>
       <c r="D62" t="str">
-        <v>Monthly</v>
+        <v>Daily</v>
       </c>
       <c r="E62" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F62">
-        <v>1720.88</v>
+        <v>98.99</v>
       </c>
       <c r="G62">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H62">
-        <v>85.817775</v>
+        <v>11</v>
       </c>
       <c r="I62" t="str">
         <v>D95</v>
       </c>
       <c r="J62">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="K62">
-        <v>34.42</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>475021</v>
+        <v>474114</v>
       </c>
       <c r="B63" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C63" s="1">
-        <v>45950.12550925926</v>
+        <v>45948.12550925926</v>
       </c>
       <c r="D63" t="str">
         <v>Daily</v>
@@ -2568,68 +2568,68 @@
         <v>New</v>
       </c>
       <c r="F63">
-        <v>116.98</v>
+        <v>142.17</v>
       </c>
       <c r="G63">
         <v>0.1</v>
       </c>
       <c r="H63">
-        <v>12.998</v>
+        <v>15.797</v>
       </c>
       <c r="I63" t="str">
-        <v>D95</v>
+        <v>D20</v>
       </c>
       <c r="J63">
         <v>0.0003</v>
       </c>
       <c r="K63">
-        <v>3.51</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>475176</v>
+        <v>474123</v>
       </c>
       <c r="B64" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C64" s="1">
-        <v>45952.12550925926</v>
+        <v>45947.12550925926</v>
       </c>
       <c r="D64" t="str">
-        <v>Monthly</v>
+        <v>Daily</v>
       </c>
       <c r="E64" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F64">
-        <v>2272.48</v>
+        <v>314.08</v>
       </c>
       <c r="G64">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H64">
-        <v>100</v>
+        <v>34.897000000000006</v>
       </c>
       <c r="I64" t="str">
         <v>D95</v>
       </c>
       <c r="J64">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="K64">
-        <v>45.45</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>475730</v>
+        <v>474138</v>
       </c>
       <c r="B65" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C65" s="1">
-        <v>45952.12550925926</v>
+        <v>45948.12550925926</v>
       </c>
       <c r="D65" t="str">
         <v>Daily</v>
@@ -2638,48 +2638,48 @@
         <v>Old</v>
       </c>
       <c r="F65">
-        <v>173.76</v>
+        <v>224.97</v>
       </c>
       <c r="G65">
         <v>0.1</v>
       </c>
       <c r="H65">
-        <v>19.308000000000003</v>
+        <v>24.997</v>
       </c>
       <c r="I65" t="str">
-        <v>D65</v>
+        <v>D95</v>
       </c>
       <c r="J65">
         <v>0.0003</v>
       </c>
       <c r="K65">
-        <v>5.21</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>475774</v>
+        <v>474156</v>
       </c>
       <c r="B66" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C66" s="1">
-        <v>45953.12550925926</v>
+        <v>45948.12550925926</v>
       </c>
       <c r="D66" t="str">
         <v>Monthly</v>
       </c>
       <c r="E66" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F66">
-        <v>1583.46</v>
+        <v>1716.37</v>
       </c>
       <c r="G66">
         <v>0.05</v>
       </c>
       <c r="H66">
-        <v>83.34</v>
+        <v>90.3345</v>
       </c>
       <c r="I66" t="str">
         <v>D12</v>
@@ -2688,18 +2688,18 @@
         <v>0.0002</v>
       </c>
       <c r="K66">
-        <v>31.67</v>
+        <v>34.33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>475926</v>
+        <v>474226</v>
       </c>
       <c r="B67" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C67" s="1">
-        <v>45952.12550925926</v>
+        <v>45948.12550925926</v>
       </c>
       <c r="D67" t="str">
         <v>Daily</v>
@@ -2708,33 +2708,33 @@
         <v>Old</v>
       </c>
       <c r="F67">
-        <v>125.99</v>
+        <v>123.29</v>
       </c>
       <c r="G67">
         <v>0.1</v>
       </c>
       <c r="H67">
-        <v>13.999</v>
+        <v>13.698</v>
       </c>
       <c r="I67" t="str">
-        <v>Z96</v>
+        <v>D99</v>
       </c>
       <c r="J67">
         <v>0.0003</v>
       </c>
       <c r="K67">
-        <v>3.78</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>476036</v>
+        <v>474501</v>
       </c>
       <c r="B68" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C68" s="1">
-        <v>45953.12550925926</v>
+        <v>45948.12550925926</v>
       </c>
       <c r="D68" t="str">
         <v>Daily</v>
@@ -2743,13 +2743,13 @@
         <v>Old</v>
       </c>
       <c r="F68">
-        <v>173.76</v>
+        <v>125.98</v>
       </c>
       <c r="G68">
         <v>0.1</v>
       </c>
       <c r="H68">
-        <v>19.308000000000003</v>
+        <v>13.998000000000001</v>
       </c>
       <c r="I68" t="str">
         <v>D95</v>
@@ -2758,88 +2758,88 @@
         <v>0.0003</v>
       </c>
       <c r="K68">
-        <v>5.21</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>476042</v>
+        <v>474553</v>
       </c>
       <c r="B69" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C69" s="1">
-        <v>45956.12550925926</v>
+        <v>45949.12550925926</v>
       </c>
       <c r="D69" t="str">
-        <v>Weekly</v>
+        <v>Daily</v>
       </c>
       <c r="E69" t="str">
         <v>Old</v>
       </c>
       <c r="F69">
-        <v>1013.32</v>
+        <v>89.98</v>
       </c>
       <c r="G69">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H69">
-        <v>85.1352</v>
+        <v>9.998</v>
       </c>
       <c r="I69" t="str">
         <v>D95</v>
       </c>
       <c r="J69">
-        <v>0.000325</v>
+        <v>0.0003</v>
       </c>
       <c r="K69">
-        <v>32.93</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>476538</v>
+        <v>474709</v>
       </c>
       <c r="B70" t="str">
-        <v>Rental Ended</v>
+        <v>Car Assigned</v>
       </c>
       <c r="C70" s="1">
-        <v>45954.12550925926</v>
+        <v>45949.12550925926</v>
       </c>
       <c r="D70" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E70" t="str">
         <v>Old</v>
       </c>
       <c r="F70">
-        <v>108.86</v>
+        <v>2782.78</v>
       </c>
       <c r="G70">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H70">
-        <v>12.096999999999998</v>
+        <v>100</v>
       </c>
       <c r="I70" t="str">
-        <v>D95</v>
+        <v>D20</v>
       </c>
       <c r="J70">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K70">
-        <v>3.27</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>476539</v>
+        <v>474720</v>
       </c>
       <c r="B71" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C71" s="1">
-        <v>45954.12550925926</v>
+        <v>45949.12550925926</v>
       </c>
       <c r="D71" t="str">
         <v>Daily</v>
@@ -2848,33 +2848,33 @@
         <v>Old</v>
       </c>
       <c r="F71">
-        <v>325.14</v>
+        <v>105.28</v>
       </c>
       <c r="G71">
         <v>0.1</v>
       </c>
       <c r="H71">
-        <v>34.905</v>
+        <v>11.7</v>
       </c>
       <c r="I71" t="str">
-        <v>D95</v>
+        <v>D50</v>
       </c>
       <c r="J71">
         <v>0.0003</v>
       </c>
       <c r="K71">
-        <v>9.75</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>476741</v>
+        <v>474824</v>
       </c>
       <c r="B72" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C72" s="1">
-        <v>45954.12550925926</v>
+        <v>45949.12550925926</v>
       </c>
       <c r="D72" t="str">
         <v>Daily</v>
@@ -2883,103 +2883,103 @@
         <v>Old</v>
       </c>
       <c r="F72">
-        <v>253.75</v>
+        <v>89.98</v>
       </c>
       <c r="G72">
         <v>0.1</v>
       </c>
       <c r="H72">
-        <v>28.195</v>
+        <v>9.998</v>
       </c>
       <c r="I72" t="str">
-        <v>D95</v>
+        <v>D50</v>
       </c>
       <c r="J72">
         <v>0.0003</v>
       </c>
       <c r="K72">
-        <v>7.61</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>476804</v>
+        <v>474838</v>
       </c>
       <c r="B73" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C73" s="1">
-        <v>45955.12550925926</v>
+        <v>45949.12550925926</v>
       </c>
       <c r="D73" t="str">
-        <v>Monthly</v>
+        <v>Daily</v>
       </c>
       <c r="E73" t="str">
         <v>Old</v>
       </c>
       <c r="F73">
-        <v>1654.9</v>
+        <v>161.09</v>
       </c>
       <c r="G73">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H73">
-        <v>84.15449999999998</v>
+        <v>17.898</v>
       </c>
       <c r="I73" t="str">
-        <v>D95</v>
+        <v>D50</v>
       </c>
       <c r="J73">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="K73">
-        <v>33.1</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>476817</v>
+        <v>474855</v>
       </c>
       <c r="B74" t="str">
         <v>Rental Started</v>
       </c>
       <c r="C74" s="1">
-        <v>45954.12550925926</v>
+        <v>45950.12550925926</v>
       </c>
       <c r="D74" t="str">
-        <v>Daily</v>
+        <v>Weekly</v>
       </c>
       <c r="E74" t="str">
         <v>Old</v>
       </c>
       <c r="F74">
-        <v>440.96</v>
+        <v>2006.28</v>
       </c>
       <c r="G74">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H74">
-        <v>48.996</v>
+        <v>100</v>
       </c>
       <c r="I74" t="str">
-        <v>D12</v>
+        <v>D95</v>
       </c>
       <c r="J74">
-        <v>0.0003</v>
+        <v>0.000325</v>
       </c>
       <c r="K74">
-        <v>13.23</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>476827</v>
+        <v>474888</v>
       </c>
       <c r="B75" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C75" s="1">
-        <v>45954.12550925926</v>
+        <v>45950.12550925926</v>
       </c>
       <c r="D75" t="str">
         <v>Daily</v>
@@ -2988,74 +2988,74 @@
         <v>Old</v>
       </c>
       <c r="F75">
-        <v>89.98</v>
+        <v>208.75</v>
       </c>
       <c r="G75">
         <v>0.1</v>
       </c>
       <c r="H75">
-        <v>9.998</v>
+        <v>23.195</v>
       </c>
       <c r="I75" t="str">
-        <v>D8</v>
+        <v>D95</v>
       </c>
       <c r="J75">
         <v>0.0003</v>
       </c>
       <c r="K75">
-        <v>2.7</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>476867</v>
+        <v>474899</v>
       </c>
       <c r="B76" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C76" s="1">
-        <v>45955.12550925926</v>
+        <v>45950.12550925926</v>
       </c>
       <c r="D76" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E76" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F76">
-        <v>187.17</v>
+        <v>1720.88</v>
       </c>
       <c r="G76">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H76">
-        <v>20.796999999999997</v>
+        <v>85.817775</v>
       </c>
       <c r="I76" t="str">
         <v>D95</v>
       </c>
       <c r="J76">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K76">
-        <v>5.62</v>
+        <v>34.42</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>476997</v>
+        <v>475021</v>
       </c>
       <c r="B77" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C77" s="1">
-        <v>45955.12550925926</v>
+        <v>45950.12550925926</v>
       </c>
       <c r="D77" t="str">
         <v>Daily</v>
       </c>
       <c r="E77" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F77">
         <v>116.98</v>
@@ -3064,10 +3064,10 @@
         <v>0.1</v>
       </c>
       <c r="H77">
-        <v>12.997800000000002</v>
+        <v>12.998</v>
       </c>
       <c r="I77" t="str">
-        <v>D100</v>
+        <v>D95</v>
       </c>
       <c r="J77">
         <v>0.0003</v>
@@ -3078,48 +3078,48 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>477148</v>
+        <v>475176</v>
       </c>
       <c r="B78" t="str">
         <v>Rental Started</v>
       </c>
       <c r="C78" s="1">
-        <v>45956.12550925926</v>
+        <v>45952.12550925926</v>
       </c>
       <c r="D78" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E78" t="str">
         <v>Old</v>
       </c>
       <c r="F78">
-        <v>106.18</v>
+        <v>2272.48</v>
       </c>
       <c r="G78">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H78">
-        <v>11.798</v>
+        <v>100</v>
       </c>
       <c r="I78" t="str">
         <v>D95</v>
       </c>
       <c r="J78">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K78">
-        <v>3.19</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>477159</v>
+        <v>475730</v>
       </c>
       <c r="B79" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C79" s="1">
-        <v>45956.12550925926</v>
+        <v>45952.12550925926</v>
       </c>
       <c r="D79" t="str">
         <v>Daily</v>
@@ -3128,68 +3128,68 @@
         <v>Old</v>
       </c>
       <c r="F79">
-        <v>101.67</v>
+        <v>173.76</v>
       </c>
       <c r="G79">
         <v>0.1</v>
       </c>
       <c r="H79">
-        <v>11.298</v>
+        <v>19.308000000000003</v>
       </c>
       <c r="I79" t="str">
-        <v>D100</v>
+        <v>D65</v>
       </c>
       <c r="J79">
         <v>0.0003</v>
       </c>
       <c r="K79">
-        <v>3.05</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>477161</v>
+        <v>475774</v>
       </c>
       <c r="B80" t="str">
-        <v>Rental Ended</v>
+        <v>Rental Started</v>
       </c>
       <c r="C80" s="1">
-        <v>45955.12550925926</v>
+        <v>45953.12550925926</v>
       </c>
       <c r="D80" t="str">
-        <v>Daily</v>
+        <v>Monthly</v>
       </c>
       <c r="E80" t="str">
-        <v>Old</v>
+        <v>New</v>
       </c>
       <c r="F80">
-        <v>130.47</v>
+        <v>1583.46</v>
       </c>
       <c r="G80">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H80">
-        <v>14.497</v>
+        <v>83.34</v>
       </c>
       <c r="I80" t="str">
-        <v>D95</v>
+        <v>D12</v>
       </c>
       <c r="J80">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K80">
-        <v>3.91</v>
+        <v>31.67</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>477252</v>
+        <v>475926</v>
       </c>
       <c r="B81" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C81" s="1">
-        <v>45956.12550925926</v>
+        <v>45952.12550925926</v>
       </c>
       <c r="D81" t="str">
         <v>Daily</v>
@@ -3198,33 +3198,33 @@
         <v>Old</v>
       </c>
       <c r="F81">
-        <v>690.9</v>
+        <v>125.99</v>
       </c>
       <c r="G81">
         <v>0.1</v>
       </c>
       <c r="H81">
-        <v>73.8924</v>
+        <v>13.999</v>
       </c>
       <c r="I81" t="str">
-        <v>D100</v>
+        <v>Z96</v>
       </c>
       <c r="J81">
         <v>0.0003</v>
       </c>
       <c r="K81">
-        <v>20.73</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>477302</v>
+        <v>476036</v>
       </c>
       <c r="B82" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C82" s="1">
-        <v>45957.12550925926</v>
+        <v>45953.12550925926</v>
       </c>
       <c r="D82" t="str">
         <v>Daily</v>
@@ -3233,83 +3233,83 @@
         <v>Old</v>
       </c>
       <c r="F82">
-        <v>627.24</v>
+        <v>173.76</v>
       </c>
       <c r="G82">
         <v>0.1</v>
       </c>
       <c r="H82">
-        <v>69.69300000000001</v>
+        <v>19.308000000000003</v>
       </c>
       <c r="I82" t="str">
-        <v>D100</v>
+        <v>D95</v>
       </c>
       <c r="J82">
         <v>0.0003</v>
       </c>
       <c r="K82">
-        <v>18.82</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>477419</v>
+        <v>476042</v>
       </c>
       <c r="B83" t="str">
-        <v>Cancelled by User</v>
+        <v>Rental Started</v>
       </c>
       <c r="C83" s="1">
         <v>45956.12550925926</v>
       </c>
       <c r="D83" t="str">
-        <v>Daily</v>
+        <v>Weekly</v>
       </c>
       <c r="E83" t="str">
         <v>Old</v>
       </c>
       <c r="F83">
-        <v>107.98</v>
+        <v>1013.32</v>
       </c>
       <c r="G83">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H83">
-        <v>11.998</v>
+        <v>85.1352</v>
       </c>
       <c r="I83" t="str">
         <v>D95</v>
       </c>
       <c r="J83">
-        <v>0.0003</v>
+        <v>0.000325</v>
       </c>
       <c r="K83">
-        <v>3.24</v>
+        <v>32.93</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>477504</v>
+        <v>476538</v>
       </c>
       <c r="B84" t="str">
         <v>Rental Ended</v>
       </c>
       <c r="C84" s="1">
-        <v>45957.12550925926</v>
+        <v>45954.12550925926</v>
       </c>
       <c r="D84" t="str">
         <v>Daily</v>
       </c>
       <c r="E84" t="str">
-        <v>New</v>
+        <v>Old</v>
       </c>
       <c r="F84">
-        <v>193.47</v>
+        <v>108.86</v>
       </c>
       <c r="G84">
         <v>0.1</v>
       </c>
       <c r="H84">
-        <v>21.497</v>
+        <v>12.096999999999998</v>
       </c>
       <c r="I84" t="str">
         <v>D95</v>
@@ -3318,53 +3318,53 @@
         <v>0.0003</v>
       </c>
       <c r="K84">
-        <v>5.8</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>477647</v>
+        <v>476539</v>
       </c>
       <c r="B85" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C85" s="1">
-        <v>45957.12550925926</v>
+        <v>45954.12550925926</v>
       </c>
       <c r="D85" t="str">
-        <v>Weekly</v>
+        <v>Daily</v>
       </c>
       <c r="E85" t="str">
         <v>Old</v>
       </c>
       <c r="F85">
-        <v>660.56</v>
+        <v>325.14</v>
       </c>
       <c r="G85">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H85">
-        <v>57.44</v>
+        <v>34.905</v>
       </c>
       <c r="I85" t="str">
-        <v>Z77</v>
+        <v>D95</v>
       </c>
       <c r="J85">
-        <v>0.000325</v>
+        <v>0.0003</v>
       </c>
       <c r="K85">
-        <v>21.47</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>477658</v>
+        <v>476741</v>
       </c>
       <c r="B86" t="str">
-        <v>Rental Started</v>
+        <v>Rental Ended</v>
       </c>
       <c r="C86" s="1">
-        <v>45957.12550925926</v>
+        <v>45954.12550925926</v>
       </c>
       <c r="D86" t="str">
         <v>Daily</v>
@@ -3373,63 +3373,588 @@
         <v>Old</v>
       </c>
       <c r="F86">
-        <v>161.09</v>
+        <v>253.75</v>
       </c>
       <c r="G86">
         <v>0.1</v>
       </c>
       <c r="H86">
-        <v>17.898</v>
+        <v>28.195</v>
       </c>
       <c r="I86" t="str">
-        <v>D100</v>
+        <v>D95</v>
       </c>
       <c r="J86">
         <v>0.0003</v>
       </c>
       <c r="K86">
-        <v>4.83</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>477662</v>
+        <v>476804</v>
       </c>
       <c r="B87" t="str">
         <v>Rental Started</v>
       </c>
       <c r="C87" s="1">
+        <v>45955.12550925926</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F87">
+        <v>1654.9</v>
+      </c>
+      <c r="G87">
+        <v>0.05</v>
+      </c>
+      <c r="H87">
+        <v>84.15449999999998</v>
+      </c>
+      <c r="I87" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J87">
+        <v>0.0002</v>
+      </c>
+      <c r="K87">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>476817</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45954.12550925926</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F88">
+        <v>440.96</v>
+      </c>
+      <c r="G88">
+        <v>0.1</v>
+      </c>
+      <c r="H88">
+        <v>48.996</v>
+      </c>
+      <c r="I88" t="str">
+        <v>D12</v>
+      </c>
+      <c r="J88">
+        <v>0.0003</v>
+      </c>
+      <c r="K88">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>476827</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45954.12550925926</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F89">
+        <v>89.98</v>
+      </c>
+      <c r="G89">
+        <v>0.1</v>
+      </c>
+      <c r="H89">
+        <v>9.998</v>
+      </c>
+      <c r="I89" t="str">
+        <v>D8</v>
+      </c>
+      <c r="J89">
+        <v>0.0003</v>
+      </c>
+      <c r="K89">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>476867</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45955.12550925926</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F90">
+        <v>187.17</v>
+      </c>
+      <c r="G90">
+        <v>0.1</v>
+      </c>
+      <c r="H90">
+        <v>20.796999999999997</v>
+      </c>
+      <c r="I90" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J90">
+        <v>0.0003</v>
+      </c>
+      <c r="K90">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>476997</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45955.12550925926</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F91">
+        <v>116.98</v>
+      </c>
+      <c r="G91">
+        <v>0.1</v>
+      </c>
+      <c r="H91">
+        <v>12.997800000000002</v>
+      </c>
+      <c r="I91" t="str">
+        <v>D100</v>
+      </c>
+      <c r="J91">
+        <v>0.0003</v>
+      </c>
+      <c r="K91">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>477148</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45956.12550925926</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F92">
+        <v>106.18</v>
+      </c>
+      <c r="G92">
+        <v>0.1</v>
+      </c>
+      <c r="H92">
+        <v>11.798</v>
+      </c>
+      <c r="I92" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J92">
+        <v>0.0003</v>
+      </c>
+      <c r="K92">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>477159</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45956.12550925926</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F93">
+        <v>101.67</v>
+      </c>
+      <c r="G93">
+        <v>0.1</v>
+      </c>
+      <c r="H93">
+        <v>11.298</v>
+      </c>
+      <c r="I93" t="str">
+        <v>D100</v>
+      </c>
+      <c r="J93">
+        <v>0.0003</v>
+      </c>
+      <c r="K93">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>477161</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C94" s="1">
+        <v>45955.12550925926</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F94">
+        <v>130.47</v>
+      </c>
+      <c r="G94">
+        <v>0.1</v>
+      </c>
+      <c r="H94">
+        <v>14.497</v>
+      </c>
+      <c r="I94" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J94">
+        <v>0.0003</v>
+      </c>
+      <c r="K94">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>477252</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45956.12550925926</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F95">
+        <v>690.9</v>
+      </c>
+      <c r="G95">
+        <v>0.1</v>
+      </c>
+      <c r="H95">
+        <v>73.8924</v>
+      </c>
+      <c r="I95" t="str">
+        <v>D100</v>
+      </c>
+      <c r="J95">
+        <v>0.0003</v>
+      </c>
+      <c r="K95">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>477302</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C96" s="1">
         <v>45957.12550925926</v>
       </c>
-      <c r="D87" t="str">
-        <v>Daily</v>
-      </c>
-      <c r="E87" t="str">
+      <c r="D96" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F96">
+        <v>627.24</v>
+      </c>
+      <c r="G96">
+        <v>0.1</v>
+      </c>
+      <c r="H96">
+        <v>69.69300000000001</v>
+      </c>
+      <c r="I96" t="str">
+        <v>D100</v>
+      </c>
+      <c r="J96">
+        <v>0.0003</v>
+      </c>
+      <c r="K96">
+        <v>18.82</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>477419</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Cancelled by User</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45956.12550925926</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F97">
+        <v>107.98</v>
+      </c>
+      <c r="G97">
+        <v>0.1</v>
+      </c>
+      <c r="H97">
+        <v>11.998</v>
+      </c>
+      <c r="I97" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J97">
+        <v>0.0003</v>
+      </c>
+      <c r="K97">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>477504</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45957.12550925926</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E98" t="str">
         <v>New</v>
       </c>
-      <c r="F87">
+      <c r="F98">
+        <v>193.47</v>
+      </c>
+      <c r="G98">
+        <v>0.1</v>
+      </c>
+      <c r="H98">
+        <v>21.497</v>
+      </c>
+      <c r="I98" t="str">
+        <v>D95</v>
+      </c>
+      <c r="J98">
+        <v>0.0003</v>
+      </c>
+      <c r="K98">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>477647</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45957.12550925926</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Weekly</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F99">
+        <v>660.56</v>
+      </c>
+      <c r="G99">
+        <v>0.08</v>
+      </c>
+      <c r="H99">
+        <v>57.44</v>
+      </c>
+      <c r="I99" t="str">
+        <v>Z77</v>
+      </c>
+      <c r="J99">
+        <v>0.000325</v>
+      </c>
+      <c r="K99">
+        <v>21.47</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>477658</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C100" s="1">
+        <v>45957.12550925926</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F100">
+        <v>161.09</v>
+      </c>
+      <c r="G100">
+        <v>0.1</v>
+      </c>
+      <c r="H100">
+        <v>17.898</v>
+      </c>
+      <c r="I100" t="str">
+        <v>D100</v>
+      </c>
+      <c r="J100">
+        <v>0.0003</v>
+      </c>
+      <c r="K100">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>477662</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Rental Ended</v>
+      </c>
+      <c r="C101" s="1">
+        <v>45957.12550925926</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E101" t="str">
+        <v>New</v>
+      </c>
+      <c r="F101">
         <v>89.99</v>
       </c>
-      <c r="G87">
-        <v>0.1</v>
-      </c>
-      <c r="H87">
+      <c r="G101">
+        <v>0.1</v>
+      </c>
+      <c r="H101">
         <v>9.999</v>
       </c>
-      <c r="I87" t="str">
+      <c r="I101" t="str">
         <v>Z99</v>
       </c>
-      <c r="J87">
-        <v>0.0003</v>
-      </c>
-      <c r="K87">
+      <c r="J101">
+        <v>0.0003</v>
+      </c>
+      <c r="K101">
         <v>2.7</v>
       </c>
     </row>
-    <row r="88"/>
+    <row r="102">
+      <c r="A102">
+        <v>477984</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Rental Started</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45958.12550925926</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Daily</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Old</v>
+      </c>
+      <c r="F102">
+        <v>259.21</v>
+      </c>
+      <c r="G102">
+        <v>0.1</v>
+      </c>
+      <c r="H102">
+        <v>28.801</v>
+      </c>
+      <c r="I102" t="str">
+        <v>D100</v>
+      </c>
+      <c r="J102">
+        <v>0.0003</v>
+      </c>
+      <c r="K102">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="103"/>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K88"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K103"/>
   </ignoredErrors>
 </worksheet>
 </file>